--- a/data_storage/stock_market_data.xlsx
+++ b/data_storage/stock_market_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,26 @@
           <t>Volume</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>10_MA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>20_MA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_Return</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -504,6 +524,16 @@
       <c r="H2" t="n">
         <v>83322600</v>
       </c>
+      <c r="I2" t="n">
+        <v>154.6499938964844</v>
+      </c>
+      <c r="J2" t="n">
+        <v>154.6499938964844</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -530,6 +560,18 @@
       <c r="H3" t="n">
         <v>64120100</v>
       </c>
+      <c r="I3" t="n">
+        <v>153.2849960327148</v>
+      </c>
+      <c r="J3" t="n">
+        <v>153.2849960327148</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.01765273737654593</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -556,6 +598,18 @@
       <c r="H4" t="n">
         <v>56007100</v>
       </c>
+      <c r="I4" t="n">
+        <v>152.4799957275391</v>
+      </c>
+      <c r="J4" t="n">
+        <v>152.4799957275391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.006911552556695955</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.007595164624093926</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -582,6 +636,18 @@
       <c r="H5" t="n">
         <v>57450700</v>
       </c>
+      <c r="I5" t="n">
+        <v>152.1124954223633</v>
+      </c>
+      <c r="J5" t="n">
+        <v>152.1124954223633</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0009279472007650558</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.009328028079779505</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -608,6 +674,18 @@
       <c r="H6" t="n">
         <v>62199000</v>
       </c>
+      <c r="I6" t="n">
+        <v>152.4599975585938</v>
+      </c>
+      <c r="J6" t="n">
+        <v>152.4599975585938</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01880677902118011</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01536352333047134</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -634,6 +712,18 @@
       <c r="H7" t="n">
         <v>61707600</v>
       </c>
+      <c r="I7" t="n">
+        <v>152.5833307902018</v>
+      </c>
+      <c r="J7" t="n">
+        <v>152.5833307902018</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.004224953717818392</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01337346342137161</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -660,6 +750,18 @@
       <c r="H8" t="n">
         <v>65573800</v>
       </c>
+      <c r="I8" t="n">
+        <v>152.9757123674665</v>
+      </c>
+      <c r="J8" t="n">
+        <v>152.9757123674665</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01390342640497644</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01357336778741213</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -686,6 +788,18 @@
       <c r="H9" t="n">
         <v>68167900</v>
       </c>
+      <c r="I9" t="n">
+        <v>153.0674991607666</v>
+      </c>
+      <c r="J9" t="n">
+        <v>153.0674991607666</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.01042937679836953</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.01309849428935751</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -712,6 +826,18 @@
       <c r="H10" t="n">
         <v>59144100</v>
       </c>
+      <c r="I10" t="n">
+        <v>153.009999593099</v>
+      </c>
+      <c r="J10" t="n">
+        <v>153.009999593099</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.007546702305912589</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01235940654003694</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -738,6 +864,18 @@
       <c r="H11" t="n">
         <v>58867200</v>
       </c>
+      <c r="I11" t="n">
+        <v>152.556999206543</v>
+      </c>
+      <c r="J11" t="n">
+        <v>152.556999206543</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.02667982460044827</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01425908289889301</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -764,6 +902,18 @@
       <c r="H12" t="n">
         <v>51011300</v>
       </c>
+      <c r="I12" t="n">
+        <v>151.9830001831055</v>
+      </c>
+      <c r="J12" t="n">
+        <v>152.225454157049</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.002896066453014878</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01364137258324167</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -790,6 +940,18 @@
       <c r="H13" t="n">
         <v>48394200</v>
       </c>
+      <c r="I13" t="n">
+        <v>151.7309997558594</v>
+      </c>
+      <c r="J13" t="n">
+        <v>151.9899991353353</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.003290512539955603</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01284409391676195</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -816,6 +978,18 @@
       <c r="H14" t="n">
         <v>55469600</v>
       </c>
+      <c r="I14" t="n">
+        <v>151.3150009155273</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151.5838458721454</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.01800526969553307</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01379783267012996</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -842,6 +1016,18 @@
       <c r="H15" t="n">
         <v>44998500</v>
       </c>
+      <c r="I15" t="n">
+        <v>151.0060012817383</v>
+      </c>
+      <c r="J15" t="n">
+        <v>151.322142464774</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.008247504598905886</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01420031227791139</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -868,6 +1054,18 @@
       <c r="H16" t="n">
         <v>50547000</v>
       </c>
+      <c r="I16" t="n">
+        <v>150.3620010375977</v>
+      </c>
+      <c r="J16" t="n">
+        <v>151.061333211263</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.003447772533457294</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01218211968490797</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -894,6 +1092,18 @@
       <c r="H17" t="n">
         <v>55479000</v>
       </c>
+      <c r="I17" t="n">
+        <v>149.5730010986328</v>
+      </c>
+      <c r="J17" t="n">
+        <v>150.7018747329712</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.01424602164944799</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01258978132412703</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -920,6 +1130,18 @@
       <c r="H18" t="n">
         <v>52238100</v>
       </c>
+      <c r="I18" t="n">
+        <v>148.6310012817383</v>
+      </c>
+      <c r="J18" t="n">
+        <v>150.419999964097</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00412914536918696</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01124982771702888</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -946,6 +1168,18 @@
       <c r="H19" t="n">
         <v>70732300</v>
       </c>
+      <c r="I19" t="n">
+        <v>148.3630004882812</v>
+      </c>
+      <c r="J19" t="n">
+        <v>150.4538887871636</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.03509008970381577</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01705192501412063</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -972,6 +1206,18 @@
       <c r="H20" t="n">
         <v>87558000</v>
       </c>
+      <c r="I20" t="n">
+        <v>148.4910003662109</v>
+      </c>
+      <c r="J20" t="n">
+        <v>150.6315789473684</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01853938339660255</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01801393575204107</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -998,6 +1244,18 @@
       <c r="H21" t="n">
         <v>56182000</v>
       </c>
+      <c r="I21" t="n">
+        <v>148.8030014038086</v>
+      </c>
+      <c r="J21" t="n">
+        <v>150.6800003051758</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.01449649418835852</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01626207549232092</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1024,6 +1282,18 @@
       <c r="H22" t="n">
         <v>47204800</v>
       </c>
+      <c r="I22" t="n">
+        <v>149.1990005493164</v>
+      </c>
+      <c r="J22" t="n">
+        <v>150.5910003662109</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.00837723590066819</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01638009780775785</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1050,6 +1320,18 @@
       <c r="H23" t="n">
         <v>53833600</v>
       </c>
+      <c r="I23" t="n">
+        <v>149.318000793457</v>
+      </c>
+      <c r="J23" t="n">
+        <v>150.5245002746582</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.01491462583974745</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01729898398519015</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1076,6 +1358,18 @@
       <c r="H24" t="n">
         <v>68572400</v>
       </c>
+      <c r="I24" t="n">
+        <v>149.4970001220703</v>
+      </c>
+      <c r="J24" t="n">
+        <v>150.4060005187988</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.0138787196275717</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0168403175550269</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1102,6 +1396,18 @@
       <c r="H25" t="n">
         <v>84457100</v>
       </c>
+      <c r="I25" t="n">
+        <v>149.7520004272461</v>
+      </c>
+      <c r="J25" t="n">
+        <v>150.3790008544922</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01326600148621626</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01714112758717435</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1128,6 +1434,18 @@
       <c r="H26" t="n">
         <v>73695900</v>
       </c>
+      <c r="I26" t="n">
+        <v>150.2699996948242</v>
+      </c>
+      <c r="J26" t="n">
+        <v>150.3160003662109</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01408915464869298</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.01743440803806811</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1154,6 +1472,18 @@
       <c r="H27" t="n">
         <v>77167900</v>
       </c>
+      <c r="I27" t="n">
+        <v>151.0380004882813</v>
+      </c>
+      <c r="J27" t="n">
+        <v>150.305500793457</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.002621463823799131</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.01629520854764278</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1180,6 +1510,18 @@
       <c r="H28" t="n">
         <v>76161100</v>
       </c>
+      <c r="I28" t="n">
+        <v>152.0320007324219</v>
+      </c>
+      <c r="J28" t="n">
+        <v>150.3315010070801</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01869403560796234</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01682305541788061</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1206,6 +1548,18 @@
       <c r="H29" t="n">
         <v>98944600</v>
       </c>
+      <c r="I29" t="n">
+        <v>152.4290008544922</v>
+      </c>
+      <c r="J29" t="n">
+        <v>150.3960006713867</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.00545400109224925</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01385488012977413</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1232,6 +1586,18 @@
       <c r="H30" t="n">
         <v>73641400</v>
       </c>
+      <c r="I30" t="n">
+        <v>152.7860000610352</v>
+      </c>
+      <c r="J30" t="n">
+        <v>150.638500213623</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01548383159022171</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01349539137680465</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1258,6 +1624,18 @@
       <c r="H31" t="n">
         <v>73938300</v>
       </c>
+      <c r="I31" t="n">
+        <v>153.5539993286133</v>
+      </c>
+      <c r="J31" t="n">
+        <v>151.1785003662109</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01194412297149716</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01236455572327333</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1284,6 +1662,18 @@
       <c r="H32" t="n">
         <v>75701800</v>
       </c>
+      <c r="I32" t="n">
+        <v>154.05</v>
+      </c>
+      <c r="J32" t="n">
+        <v>151.6245002746582</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.009103446505241086</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01305408860896506</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1310,6 +1700,18 @@
       <c r="H33" t="n">
         <v>67622100</v>
       </c>
+      <c r="I33" t="n">
+        <v>154.8839996337891</v>
+      </c>
+      <c r="J33" t="n">
+        <v>152.1010002136231</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.006969466083539766</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01139487147084837</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1336,6 +1738,18 @@
       <c r="H34" t="n">
         <v>59196500</v>
       </c>
+      <c r="I34" t="n">
+        <v>156.0589996337891</v>
+      </c>
+      <c r="J34" t="n">
+        <v>152.7779998779297</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.008305589788276002</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.009149032934628978</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1362,6 +1776,18 @@
       <c r="H35" t="n">
         <v>52390300</v>
       </c>
+      <c r="I35" t="n">
+        <v>156.8399993896484</v>
+      </c>
+      <c r="J35" t="n">
+        <v>153.2959999084473</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.01229329934916146</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01083116710303605</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1388,6 +1814,18 @@
       <c r="H36" t="n">
         <v>45992200</v>
       </c>
+      <c r="I36" t="n">
+        <v>157.3459991455078</v>
+      </c>
+      <c r="J36" t="n">
+        <v>153.807999420166</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.003980318976947728</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01067579195126698</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1414,6 +1852,18 @@
       <c r="H37" t="n">
         <v>51305700</v>
       </c>
+      <c r="I37" t="n">
+        <v>158.1239990234375</v>
+      </c>
+      <c r="J37" t="n">
+        <v>154.5809997558594</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01979074212984244</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.01186551914646332</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1440,6 +1890,18 @@
       <c r="H38" t="n">
         <v>49501700</v>
       </c>
+      <c r="I38" t="n">
+        <v>158.7749984741211</v>
+      </c>
+      <c r="J38" t="n">
+        <v>155.4034996032715</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.009889881791605992</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.01103718990657941</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1466,6 +1928,18 @@
       <c r="H39" t="n">
         <v>68749800</v>
       </c>
+      <c r="I39" t="n">
+        <v>159.7649978637695</v>
+      </c>
+      <c r="J39" t="n">
+        <v>156.0969993591308</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.015644205941022</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.01101272359393725</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1492,6 +1966,18 @@
       <c r="H40" t="n">
         <v>56976200</v>
       </c>
+      <c r="I40" t="n">
+        <v>160.6419982910156</v>
+      </c>
+      <c r="J40" t="n">
+        <v>156.7139991760254</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.00770166355044366</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01055431911533946</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1518,6 +2004,18 @@
       <c r="H41" t="n">
         <v>46278300</v>
       </c>
+      <c r="I41" t="n">
+        <v>161.2769989013672</v>
+      </c>
+      <c r="J41" t="n">
+        <v>157.4154991149902</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.003249643690696802</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0106149165882216</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1544,6 +2042,18 @@
       <c r="H42" t="n">
         <v>51511700</v>
       </c>
+      <c r="I42" t="n">
+        <v>161.8699981689453</v>
+      </c>
+      <c r="J42" t="n">
+        <v>157.9599990844727</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.01129028751342276</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.01093191163435013</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1570,6 +2080,18 @@
       <c r="H43" t="n">
         <v>45390100</v>
       </c>
+      <c r="I43" t="n">
+        <v>162.4429992675781</v>
+      </c>
+      <c r="J43" t="n">
+        <v>158.6634994506836</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.005495903672834368</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01089353921859165</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1596,6 +2118,18 @@
       <c r="H44" t="n">
         <v>47716900</v>
       </c>
+      <c r="I44" t="n">
+        <v>162.6209991455078</v>
+      </c>
+      <c r="J44" t="n">
+        <v>159.3399993896484</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.01597233586979263</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.01233821912610207</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1622,6 +2156,18 @@
       <c r="H45" t="n">
         <v>47644200</v>
       </c>
+      <c r="I45" t="n">
+        <v>162.8729995727539</v>
+      </c>
+      <c r="J45" t="n">
+        <v>159.8564994812012</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.007591160506113748</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01184781750792144</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1648,6 +2194,18 @@
       <c r="H46" t="n">
         <v>50133100</v>
       </c>
+      <c r="I46" t="n">
+        <v>163.118000793457</v>
+      </c>
+      <c r="J46" t="n">
+        <v>160.2319999694824</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.004353214769634461</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01186805531471449</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1674,6 +2232,18 @@
       <c r="H47" t="n">
         <v>68445600</v>
       </c>
+      <c r="I47" t="n">
+        <v>163.5970001220703</v>
+      </c>
+      <c r="J47" t="n">
+        <v>160.8604995727539</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.03410363052421039</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.01480452417764881</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1700,6 +2270,18 @@
       <c r="H48" t="n">
         <v>49386500</v>
       </c>
+      <c r="I48" t="n">
+        <v>163.8820007324219</v>
+      </c>
+      <c r="J48" t="n">
+        <v>161.3284996032715</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.002113981939403597</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01467328459394604</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1726,6 +2308,18 @@
       <c r="H49" t="n">
         <v>41516200</v>
       </c>
+      <c r="I49" t="n">
+        <v>163.9150009155273</v>
+      </c>
+      <c r="J49" t="n">
+        <v>161.8399993896484</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0001209915432451858</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.01384826943020837</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1752,6 +2346,18 @@
       <c r="H50" t="n">
         <v>49923000</v>
       </c>
+      <c r="I50" t="n">
+        <v>163.9450012207031</v>
+      </c>
+      <c r="J50" t="n">
+        <v>162.2934997558594</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.007504723871135432</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.01383668551182453</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1778,6 +2384,18 @@
       <c r="H51" t="n">
         <v>47720200</v>
       </c>
+      <c r="I51" t="n">
+        <v>164.1450012207031</v>
+      </c>
+      <c r="J51" t="n">
+        <v>162.7110000610352</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.006968244450070493</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.01392525915758057</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1804,6 +2422,18 @@
       <c r="H52" t="n">
         <v>52456400</v>
       </c>
+      <c r="I52" t="n">
+        <v>164.434001159668</v>
+      </c>
+      <c r="J52" t="n">
+        <v>163.1519996643066</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.005846274281344988</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0134781492281941</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1830,6 +2460,18 @@
       <c r="H53" t="n">
         <v>58337300</v>
       </c>
+      <c r="I53" t="n">
+        <v>164.4700012207031</v>
+      </c>
+      <c r="J53" t="n">
+        <v>163.4565002441406</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.009780916193947831</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.01387656480556146</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1856,6 +2498,18 @@
       <c r="H54" t="n">
         <v>41949600</v>
       </c>
+      <c r="I54" t="n">
+        <v>164.8000015258789</v>
+      </c>
+      <c r="J54" t="n">
+        <v>163.7105003356934</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.001878545331279513</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01264351916371561</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1882,6 +2536,18 @@
       <c r="H55" t="n">
         <v>48714100</v>
       </c>
+      <c r="I55" t="n">
+        <v>165.0970016479492</v>
+      </c>
+      <c r="J55" t="n">
+        <v>163.9850006103516</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0094356592349637</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01281275169515364</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1908,6 +2574,18 @@
       <c r="H56" t="n">
         <v>45498800</v>
       </c>
+      <c r="I56" t="n">
+        <v>165.4630004882812</v>
+      </c>
+      <c r="J56" t="n">
+        <v>164.2905006408691</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-6.112087295517821e-05</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01265069599848665</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1934,6 +2612,18 @@
       <c r="H57" t="n">
         <v>64902300</v>
       </c>
+      <c r="I57" t="n">
+        <v>165.7480010986328</v>
+      </c>
+      <c r="J57" t="n">
+        <v>164.6725006103516</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.02839526936524983</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01109043986500249</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1960,6 +2650,18 @@
       <c r="H58" t="n">
         <v>55209200</v>
       </c>
+      <c r="I58" t="n">
+        <v>166.1949996948242</v>
+      </c>
+      <c r="J58" t="n">
+        <v>165.0385002136231</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.007541054486406518</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01113559858736032</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1986,6 +2688,18 @@
       <c r="H59" t="n">
         <v>52472900</v>
       </c>
+      <c r="I59" t="n">
+        <v>166.6309997558594</v>
+      </c>
+      <c r="J59" t="n">
+        <v>165.2730003356934</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.0005303886243240852</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01115443514059714</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2012,6 +2726,18 @@
       <c r="H60" t="n">
         <v>48425700</v>
       </c>
+      <c r="I60" t="n">
+        <v>166.8379989624023</v>
+      </c>
+      <c r="J60" t="n">
+        <v>165.3915000915527</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.006191420923589042</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01133334499620405</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2038,6 +2764,18 @@
       <c r="H61" t="n">
         <v>65136000</v>
       </c>
+      <c r="I61" t="n">
+        <v>166.8199981689453</v>
+      </c>
+      <c r="J61" t="n">
+        <v>165.4824996948242</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.006467285993302041</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.01138217112868831</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2064,6 +2802,18 @@
       <c r="H62" t="n">
         <v>81235400</v>
       </c>
+      <c r="I62" t="n">
+        <v>166.7339981079102</v>
+      </c>
+      <c r="J62" t="n">
+        <v>165.5839996337891</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.009913429037699317</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.01168104877875196</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2090,6 +2840,18 @@
       <c r="H63" t="n">
         <v>113316400</v>
       </c>
+      <c r="I63" t="n">
+        <v>167.5889984130859</v>
+      </c>
+      <c r="J63" t="n">
+        <v>166.0294998168945</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.04692692172716728</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0184532205048243</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2116,6 +2878,16 @@
       <c r="H64" t="n">
         <v>50841400</v>
       </c>
+      <c r="I64" t="n">
+        <v>267.5599975585937</v>
+      </c>
+      <c r="J64" t="n">
+        <v>267.5599975585937</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2142,6 +2914,18 @@
       <c r="H65" t="n">
         <v>54686000</v>
       </c>
+      <c r="I65" t="n">
+        <v>267.1450042724609</v>
+      </c>
+      <c r="J65" t="n">
+        <v>267.1450042724609</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.003102057780830281</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2168,6 +2952,18 @@
       <c r="H66" t="n">
         <v>42375100</v>
       </c>
+      <c r="I66" t="n">
+        <v>265.9700012207031</v>
+      </c>
+      <c r="J66" t="n">
+        <v>265.9700012207031</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.01165978982882443</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.006051230362714104</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2194,6 +2990,18 @@
       <c r="H67" t="n">
         <v>25818500</v>
       </c>
+      <c r="I67" t="n">
+        <v>265.2525024414062</v>
+      </c>
+      <c r="J67" t="n">
+        <v>265.2525024414062</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.001972494588055484</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.005297080640843005</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2220,6 +3028,18 @@
       <c r="H68" t="n">
         <v>44630900</v>
       </c>
+      <c r="I68" t="n">
+        <v>266.4660034179688</v>
+      </c>
+      <c r="J68" t="n">
+        <v>266.4660034179688</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.03124287734706099</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.01891169993334272</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2246,6 +3066,18 @@
       <c r="H69" t="n">
         <v>37047900</v>
       </c>
+      <c r="I69" t="n">
+        <v>267.4166717529297</v>
+      </c>
+      <c r="J69" t="n">
+        <v>267.4166717529297</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.003132854491264547</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.01637950421047907</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2272,6 +3104,18 @@
       <c r="H70" t="n">
         <v>28922400</v>
       </c>
+      <c r="I70" t="n">
+        <v>267.6885768345424</v>
+      </c>
+      <c r="J70" t="n">
+        <v>267.6885768345424</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.01047141846238819</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.01572564073043227</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2298,6 +3142,18 @@
       <c r="H71" t="n">
         <v>29603600</v>
       </c>
+      <c r="I71" t="n">
+        <v>266.9962539672852</v>
+      </c>
+      <c r="J71" t="n">
+        <v>266.9962539672852</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.02662265421336785</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.01779398098173528</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2324,6 +3180,18 @@
       <c r="H72" t="n">
         <v>30000100</v>
       </c>
+      <c r="I72" t="n">
+        <v>266.0033365885417</v>
+      </c>
+      <c r="J72" t="n">
+        <v>266.0033365885417</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.01560174111430923</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.01708644167852537</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2350,6 +3218,18 @@
       <c r="H73" t="n">
         <v>28397400</v>
       </c>
+      <c r="I73" t="n">
+        <v>264.670002746582</v>
+      </c>
+      <c r="J73" t="n">
+        <v>264.670002746582</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.02088661334821784</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01690327833662571</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2376,6 +3256,18 @@
       <c r="H74" t="n">
         <v>22491100</v>
       </c>
+      <c r="I74" t="n">
+        <v>263.0650024414062</v>
+      </c>
+      <c r="J74" t="n">
+        <v>263.4736383611506</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.004590982983795788</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.01594484311532295</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2402,6 +3294,18 @@
       <c r="H75" t="n">
         <v>29219100</v>
       </c>
+      <c r="I75" t="n">
+        <v>261.8690017700195</v>
+      </c>
+      <c r="J75" t="n">
+        <v>262.7483355204265</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.01296175037503855</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.01704633152998997</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2428,6 +3332,18 @@
       <c r="H76" t="n">
         <v>24990900</v>
       </c>
+      <c r="I76" t="n">
+        <v>260.4290023803711</v>
+      </c>
+      <c r="J76" t="n">
+        <v>261.7076944204477</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.02178436612899848</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.01780608388604706</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2454,6 +3370,18 @@
       <c r="H77" t="n">
         <v>21190000</v>
       </c>
+      <c r="I77" t="n">
+        <v>259.1350021362305</v>
+      </c>
+      <c r="J77" t="n">
+        <v>260.8828593662807</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.003771777693612144</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01802240791772046</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2480,6 +3408,18 @@
       <c r="H78" t="n">
         <v>22491000</v>
       </c>
+      <c r="I78" t="n">
+        <v>256.9450012207031</v>
+      </c>
+      <c r="J78" t="n">
+        <v>260.1186686197917</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.002958128726938902</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.01293055495298974</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2506,6 +3446,18 @@
       <c r="H79" t="n">
         <v>27565300</v>
       </c>
+      <c r="I79" t="n">
+        <v>254.3550003051758</v>
+      </c>
+      <c r="J79" t="n">
+        <v>259.2531270980835</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.01262927559782412</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.01232804002472166</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2532,6 +3484,18 @@
       <c r="H80" t="n">
         <v>24808200</v>
       </c>
+      <c r="I80" t="n">
+        <v>252.5339996337891</v>
+      </c>
+      <c r="J80" t="n">
+        <v>258.7741196576287</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01965321092265859</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.01545246037654521</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2558,6 +3522,18 @@
       <c r="H81" t="n">
         <v>30760100</v>
       </c>
+      <c r="I81" t="n">
+        <v>251.8479995727539</v>
+      </c>
+      <c r="J81" t="n">
+        <v>258.5805570814344</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01664606214655429</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0153641506815669</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2584,6 +3560,18 @@
       <c r="H82" t="n">
         <v>24109800</v>
       </c>
+      <c r="I82" t="n">
+        <v>251.7289993286133</v>
+      </c>
+      <c r="J82" t="n">
+        <v>258.4905275043689</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.00618904725060565</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.01484249626526217</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2610,6 +3598,18 @@
       <c r="H83" t="n">
         <v>21473200</v>
       </c>
+      <c r="I83" t="n">
+        <v>251.8769989013672</v>
+      </c>
+      <c r="J83" t="n">
+        <v>258.2735008239746</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.01058901885158758</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.01356236974948381</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2636,6 +3636,18 @@
       <c r="H84" t="n">
         <v>17340200</v>
       </c>
+      <c r="I84" t="n">
+        <v>252.0959991455078</v>
+      </c>
+      <c r="J84" t="n">
+        <v>257.580500793457</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.001770595943533682</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.01346988759620621</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2662,6 +3674,18 @@
       <c r="H85" t="n">
         <v>26653400</v>
       </c>
+      <c r="I85" t="n">
+        <v>251.8509994506836</v>
+      </c>
+      <c r="J85" t="n">
+        <v>256.8600006103516</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.005439454633911489</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0128909455631703</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2688,6 +3712,18 @@
       <c r="H86" t="n">
         <v>28333900</v>
       </c>
+      <c r="I86" t="n">
+        <v>251.7879989624024</v>
+      </c>
+      <c r="J86" t="n">
+        <v>256.1085006713867</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.01478285858455619</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01177161469334795</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2714,6 +3750,18 @@
       <c r="H87" t="n">
         <v>33339700</v>
       </c>
+      <c r="I87" t="n">
+        <v>252.1639984130859</v>
+      </c>
+      <c r="J87" t="n">
+        <v>255.6495002746582</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.02144093450892526</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0136143412127891</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2740,6 +3788,18 @@
       <c r="H88" t="n">
         <v>33620300</v>
       </c>
+      <c r="I88" t="n">
+        <v>253.3009994506836</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255.1230003356933</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0270558066537383</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.01565862076122142</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2766,6 +3826,18 @@
       <c r="H89" t="n">
         <v>46028000</v>
       </c>
+      <c r="I89" t="n">
+        <v>255.2179992675781</v>
+      </c>
+      <c r="J89" t="n">
+        <v>254.786499786377</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.01783041429550547</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.01488297287761629</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2792,6 +3864,18 @@
       <c r="H90" t="n">
         <v>54768800</v>
       </c>
+      <c r="I90" t="n">
+        <v>257.7270004272461</v>
+      </c>
+      <c r="J90" t="n">
+        <v>255.1305000305176</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.040536504169149</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.01791483775300656</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2818,6 +3902,18 @@
       <c r="H91" t="n">
         <v>69527400</v>
       </c>
+      <c r="I91" t="n">
+        <v>260.141000366211</v>
+      </c>
+      <c r="J91" t="n">
+        <v>255.9944999694824</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.01169435309919131</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.01776971875184977</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2844,6 +3940,18 @@
       <c r="H92" t="n">
         <v>43466600</v>
       </c>
+      <c r="I92" t="n">
+        <v>261.677001953125</v>
+      </c>
+      <c r="J92" t="n">
+        <v>256.7030006408692</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.02576667458101811</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.02096135916372124</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2870,6 +3978,18 @@
       <c r="H93" t="n">
         <v>34558700</v>
       </c>
+      <c r="I93" t="n">
+        <v>263.6400024414062</v>
+      </c>
+      <c r="J93" t="n">
+        <v>257.7585006713867</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.005693669802799839</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.02014423255389529</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2896,6 +4016,18 @@
       <c r="H94" t="n">
         <v>34873300</v>
       </c>
+      <c r="I94" t="n">
+        <v>265.4990036010742</v>
+      </c>
+      <c r="J94" t="n">
+        <v>258.797501373291</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.005442290309805031</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.02036723252943675</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2922,6 +4054,18 @@
       <c r="H95" t="n">
         <v>36610900</v>
       </c>
+      <c r="I95" t="n">
+        <v>268.0330032348633</v>
+      </c>
+      <c r="J95" t="n">
+        <v>259.9420013427734</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.01972160177996973</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.020174284570825</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2948,6 +4092,18 @@
       <c r="H96" t="n">
         <v>28172000</v>
       </c>
+      <c r="I96" t="n">
+        <v>271.2310043334961</v>
+      </c>
+      <c r="J96" t="n">
+        <v>261.5095016479492</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.01048045675908948</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.01824351351594735</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2974,6 +4130,18 @@
       <c r="H97" t="n">
         <v>26840200</v>
       </c>
+      <c r="I97" t="n">
+        <v>273.4770050048828</v>
+      </c>
+      <c r="J97" t="n">
+        <v>262.8205017089844</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.01493389290382852</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.01978503429635517</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3000,6 +4168,18 @@
       <c r="H98" t="n">
         <v>21878600</v>
       </c>
+      <c r="I98" t="n">
+        <v>274.9210052490234</v>
+      </c>
+      <c r="J98" t="n">
+        <v>264.1110023498535</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.004160915681914013</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.01901238024505064</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3026,6 +4206,18 @@
       <c r="H99" t="n">
         <v>25087000</v>
       </c>
+      <c r="I99" t="n">
+        <v>276.4280059814453</v>
+      </c>
+      <c r="J99" t="n">
+        <v>265.8230026245117</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.019183950036463</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.01911394707821483</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3052,6 +4244,18 @@
       <c r="H100" t="n">
         <v>25053400</v>
       </c>
+      <c r="I100" t="n">
+        <v>277.213003540039</v>
+      </c>
+      <c r="J100" t="n">
+        <v>267.4700019836426</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0126197921789013</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.01507201870991255</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3078,6 +4282,18 @@
       <c r="H101" t="n">
         <v>32766000</v>
       </c>
+      <c r="I101" t="n">
+        <v>278.1000030517578</v>
+      </c>
+      <c r="J101" t="n">
+        <v>269.1205017089844</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.01496215519325284</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.0153170927293465</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3104,6 +4320,18 @@
       <c r="H102" t="n">
         <v>24883300</v>
       </c>
+      <c r="I102" t="n">
+        <v>279.6000030517578</v>
+      </c>
+      <c r="J102" t="n">
+        <v>270.6385025024414</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.0037113314323447</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.01187900064034386</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3130,6 +4358,18 @@
       <c r="H103" t="n">
         <v>25824300</v>
       </c>
+      <c r="I103" t="n">
+        <v>280.9400024414062</v>
+      </c>
+      <c r="J103" t="n">
+        <v>272.2900024414063</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.000174140266106293</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.01200935975083369</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3156,6 +4396,18 @@
       <c r="H104" t="n">
         <v>22064800</v>
       </c>
+      <c r="I104" t="n">
+        <v>282.1450012207031</v>
+      </c>
+      <c r="J104" t="n">
+        <v>273.8220024108887</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.009889255555128096</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.01250510884288384</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3182,6 +4434,18 @@
       <c r="H105" t="n">
         <v>29770300</v>
       </c>
+      <c r="I105" t="n">
+        <v>283.5390014648438</v>
+      </c>
+      <c r="J105" t="n">
+        <v>275.7860023498535</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.02553284750344331</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.01339881437822246</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3208,6 +4472,18 @@
       <c r="H106" t="n">
         <v>23103000</v>
       </c>
+      <c r="I106" t="n">
+        <v>284.4210021972656</v>
+      </c>
+      <c r="J106" t="n">
+        <v>277.8260032653808</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.00757884570926104</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.01378810227370003</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3234,6 +4510,18 @@
       <c r="H107" t="n">
         <v>27276600</v>
       </c>
+      <c r="I107" t="n">
+        <v>285.0660003662109</v>
+      </c>
+      <c r="J107" t="n">
+        <v>279.2715026855469</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.02266846727293359</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.01507437696072967</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3260,6 +4548,18 @@
       <c r="H108" t="n">
         <v>27403400</v>
       </c>
+      <c r="I108" t="n">
+        <v>285.8919982910156</v>
+      </c>
+      <c r="J108" t="n">
+        <v>280.4065017700195</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.002333570319428491</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.01489862831964404</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3286,6 +4586,18 @@
       <c r="H109" t="n">
         <v>24222700</v>
       </c>
+      <c r="I109" t="n">
+        <v>286.8249969482422</v>
+      </c>
+      <c r="J109" t="n">
+        <v>281.6265014648437</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.02239940146834019</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.0153141630021086</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3312,6 +4624,18 @@
       <c r="H110" t="n">
         <v>20987900</v>
       </c>
+      <c r="I110" t="n">
+        <v>287.0339996337891</v>
+      </c>
+      <c r="J110" t="n">
+        <v>282.1235015869141</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.01276560080113909</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0157116650197538</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3338,6 +4662,18 @@
       <c r="H111" t="n">
         <v>23836200</v>
       </c>
+      <c r="I111" t="n">
+        <v>287.0839996337891</v>
+      </c>
+      <c r="J111" t="n">
+        <v>282.5920013427734</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.009296054408186816</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.01524107237752868</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3364,6 +4700,18 @@
       <c r="H112" t="n">
         <v>20161800</v>
       </c>
+      <c r="I112" t="n">
+        <v>287.197998046875</v>
+      </c>
+      <c r="J112" t="n">
+        <v>283.3990005493164</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.001488894369654492</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.01519257265994436</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3390,6 +4738,18 @@
       <c r="H113" t="n">
         <v>17150300</v>
       </c>
+      <c r="I113" t="n">
+        <v>287.325</v>
+      </c>
+      <c r="J113" t="n">
+        <v>284.1325012207031</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0002774806366772076</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.01519101829180735</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3416,6 +4776,18 @@
       <c r="H114" t="n">
         <v>23244400</v>
       </c>
+      <c r="I114" t="n">
+        <v>287.5019989013672</v>
+      </c>
+      <c r="J114" t="n">
+        <v>284.8235000610351</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.008112417252349569</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.01506528536142283</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3442,6 +4814,18 @@
       <c r="H115" t="n">
         <v>21676400</v>
       </c>
+      <c r="I115" t="n">
+        <v>286.9179992675781</v>
+      </c>
+      <c r="J115" t="n">
+        <v>285.2285003662109</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.001223220453167584</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0122896065605418</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3468,6 +4852,18 @@
       <c r="H116" t="n">
         <v>26611000</v>
       </c>
+      <c r="I116" t="n">
+        <v>286.1559967041015</v>
+      </c>
+      <c r="J116" t="n">
+        <v>285.2884994506836</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.01396283810049437</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.01277070954758907</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3494,6 +4890,18 @@
       <c r="H117" t="n">
         <v>45772200</v>
       </c>
+      <c r="I117" t="n">
+        <v>285.4149993896484</v>
+      </c>
+      <c r="J117" t="n">
+        <v>285.2404998779297</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.02253602524585896</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.01274762251314381</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3520,6 +4928,18 @@
       <c r="H118" t="n">
         <v>64599200</v>
       </c>
+      <c r="I118" t="n">
+        <v>286.6029998779297</v>
+      </c>
+      <c r="J118" t="n">
+        <v>286.2474990844727</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.0724347567962329</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.02702658021713682</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3546,6 +4966,18 @@
       <c r="H119" t="n">
         <v>46462600</v>
       </c>
+      <c r="I119" t="n">
+        <v>288.1019989013672</v>
+      </c>
+      <c r="J119" t="n">
+        <v>287.4634979248047</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.03202759796683097</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.02789533244087419</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3572,6 +5004,18 @@
       <c r="H120" t="n">
         <v>36446700</v>
       </c>
+      <c r="I120" t="n">
+        <v>290.213998413086</v>
+      </c>
+      <c r="J120" t="n">
+        <v>288.6239990234375</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.007971732770402085</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.02715631185394762</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3598,6 +5042,18 @@
       <c r="H121" t="n">
         <v>21294100</v>
       </c>
+      <c r="I121" t="n">
+        <v>291.8899993896484</v>
+      </c>
+      <c r="J121" t="n">
+        <v>289.4869995117188</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.00553281309965481</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.02744871951181714</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3624,6 +5080,18 @@
       <c r="H122" t="n">
         <v>26404400</v>
       </c>
+      <c r="I122" t="n">
+        <v>293.5940002441406</v>
+      </c>
+      <c r="J122" t="n">
+        <v>290.3959991455078</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.0004908819795874653</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.02742032316698734</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3650,6 +5118,18 @@
       <c r="H123" t="n">
         <v>22360800</v>
       </c>
+      <c r="I123" t="n">
+        <v>295.1889984130859</v>
+      </c>
+      <c r="J123" t="n">
+        <v>291.256999206543</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-0.003307061830045477</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.02752790134164099</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3676,6 +5156,18 @@
       <c r="H124" t="n">
         <v>22519900</v>
       </c>
+      <c r="I124" t="n">
+        <v>297.1190002441406</v>
+      </c>
+      <c r="J124" t="n">
+        <v>292.3104995727539</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.003318034776204515</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.02712374721405317</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3702,6 +5194,18 @@
       <c r="H125" t="n">
         <v>28181200</v>
       </c>
+      <c r="I125" t="n">
+        <v>299.6079986572266</v>
+      </c>
+      <c r="J125" t="n">
+        <v>293.2629989624023</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.01715723182457474</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.02713715048089051</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3728,6 +5232,16 @@
       <c r="H126" t="n">
         <v>6289400</v>
       </c>
+      <c r="I126" t="n">
+        <v>362.9500122070313</v>
+      </c>
+      <c r="J126" t="n">
+        <v>362.9500122070313</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3754,6 +5268,18 @@
       <c r="H127" t="n">
         <v>6253200</v>
       </c>
+      <c r="I127" t="n">
+        <v>364.8899993896484</v>
+      </c>
+      <c r="J127" t="n">
+        <v>364.8899993896484</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.01069010672197224</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3780,6 +5306,18 @@
       <c r="H128" t="n">
         <v>6901100</v>
       </c>
+      <c r="I128" t="n">
+        <v>364.0933329264323</v>
+      </c>
+      <c r="J128" t="n">
+        <v>364.0933329264323</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.01180379666538689</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.01590559162055669</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3806,6 +5344,18 @@
       <c r="H129" t="n">
         <v>7291100</v>
       </c>
+      <c r="I129" t="n">
+        <v>359.9099960327148</v>
+      </c>
+      <c r="J129" t="n">
+        <v>359.9099960327148</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.0417655576508621</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.02631627992880083</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3832,6 +5382,18 @@
       <c r="H130" t="n">
         <v>7134400</v>
       </c>
+      <c r="I130" t="n">
+        <v>359.6419982910156</v>
+      </c>
+      <c r="J130" t="n">
+        <v>359.6419982910156</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.03227205908968078</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.03168242146273587</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3858,6 +5420,18 @@
       <c r="H131" t="n">
         <v>4624800</v>
       </c>
+      <c r="I131" t="n">
+        <v>359.6949971516927</v>
+      </c>
+      <c r="J131" t="n">
+        <v>359.6949971516927</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.003876465132240048</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.02759267138081562</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3884,6 +5458,18 @@
       <c r="H132" t="n">
         <v>3966000</v>
       </c>
+      <c r="I132" t="n">
+        <v>359.9414280482701</v>
+      </c>
+      <c r="J132" t="n">
+        <v>359.9414280482701</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.004056067361137394</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.02477798203291296</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3910,6 +5496,18 @@
       <c r="H133" t="n">
         <v>5215700</v>
       </c>
+      <c r="I133" t="n">
+        <v>358.7874984741211</v>
+      </c>
+      <c r="J133" t="n">
+        <v>358.7874984741211</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.02963317352318595</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.02516593446800916</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3936,6 +5534,18 @@
       <c r="H134" t="n">
         <v>5294700</v>
       </c>
+      <c r="I134" t="n">
+        <v>357.5844421386719</v>
+      </c>
+      <c r="J134" t="n">
+        <v>357.5844421386719</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.007841236540169216</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.02332702537763386</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3962,6 +5572,18 @@
       <c r="H135" t="n">
         <v>5710300</v>
       </c>
+      <c r="I135" t="n">
+        <v>355.5759979248047</v>
+      </c>
+      <c r="J135" t="n">
+        <v>355.5759979248047</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.0300609027242964</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.02336259450866206</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3988,6 +5610,18 @@
       <c r="H136" t="n">
         <v>4546200</v>
       </c>
+      <c r="I136" t="n">
+        <v>352.7689971923828</v>
+      </c>
+      <c r="J136" t="n">
+        <v>353.6945440118963</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.007762948495370403</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.02202646864297063</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4014,6 +5648,18 @@
       <c r="H137" t="n">
         <v>13238700</v>
       </c>
+      <c r="I137" t="n">
+        <v>348.4509979248047</v>
+      </c>
+      <c r="J137" t="n">
+        <v>351.1908315022786</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.0335344327000292</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.02233960962319125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4040,6 +5686,18 @@
       <c r="H138" t="n">
         <v>6830700</v>
       </c>
+      <c r="I138" t="n">
+        <v>343.9159973144531</v>
+      </c>
+      <c r="J138" t="n">
+        <v>348.5723055326022</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.02008342382999995</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.02247549930493064</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4066,6 +5724,18 @@
       <c r="H139" t="n">
         <v>6142600</v>
       </c>
+      <c r="I139" t="n">
+        <v>341.4829986572266</v>
+      </c>
+      <c r="J139" t="n">
+        <v>346.7478550502232</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.01854013872291516</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.02199932357134144</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4092,6 +5762,18 @@
       <c r="H140" t="n">
         <v>3676100</v>
       </c>
+      <c r="I140" t="n">
+        <v>337.838998413086</v>
+      </c>
+      <c r="J140" t="n">
+        <v>345.1066650390625</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.002786100052271867</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.01734321932070102</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4118,6 +5800,18 @@
       <c r="H141" t="n">
         <v>4911300</v>
       </c>
+      <c r="I141" t="n">
+        <v>333.1910003662109</v>
+      </c>
+      <c r="J141" t="n">
+        <v>343.1299991607666</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-0.02685249360621078</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.01723036392431758</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4144,6 +5838,18 @@
       <c r="H142" t="n">
         <v>4911000</v>
       </c>
+      <c r="I142" t="n">
+        <v>328.2369995117188</v>
+      </c>
+      <c r="J142" t="n">
+        <v>341.2917642032399</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.00510401316652187</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.01641171450710519</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4170,6 +5876,18 @@
       <c r="H143" t="n">
         <v>5953300</v>
       </c>
+      <c r="I143" t="n">
+        <v>324.6839996337891</v>
+      </c>
+      <c r="J143" t="n">
+        <v>339.8411102294922</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.01058095338368581</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.01720263805620868</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4196,6 +5914,18 @@
       <c r="H144" t="n">
         <v>5660700</v>
       </c>
+      <c r="I144" t="n">
+        <v>321.0910003662109</v>
+      </c>
+      <c r="J144" t="n">
+        <v>338.3773675215872</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.009994269844801673</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.01717925470520626</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4222,6 +5952,18 @@
       <c r="H145" t="n">
         <v>4553100</v>
       </c>
+      <c r="I145" t="n">
+        <v>318.1880004882813</v>
+      </c>
+      <c r="J145" t="n">
+        <v>336.881999206543</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-0.01140915159606748</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.01580163548557612</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4248,6 +5990,18 @@
       <c r="H146" t="n">
         <v>3479500</v>
       </c>
+      <c r="I146" t="n">
+        <v>315.8790008544922</v>
+      </c>
+      <c r="J146" t="n">
+        <v>334.3239990234375</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.01076282073161261</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.01698377185004885</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4274,6 +6028,18 @@
       <c r="H147" t="n">
         <v>7443400</v>
       </c>
+      <c r="I147" t="n">
+        <v>313.2920013427735</v>
+      </c>
+      <c r="J147" t="n">
+        <v>330.8714996337891</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.04493412034275135</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.01920137811130448</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4300,6 +6066,18 @@
       <c r="H148" t="n">
         <v>5759300</v>
       </c>
+      <c r="I148" t="n">
+        <v>310.8530029296875</v>
+      </c>
+      <c r="J148" t="n">
+        <v>327.3845001220703</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-0.01685804632362997</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.01900431914834112</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4326,6 +6104,18 @@
       <c r="H149" t="n">
         <v>6292400</v>
       </c>
+      <c r="I149" t="n">
+        <v>307.9010040283203</v>
+      </c>
+      <c r="J149" t="n">
+        <v>324.6920013427734</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.002561825300526621</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.01712158389285126</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4352,6 +6142,18 @@
       <c r="H150" t="n">
         <v>5956700</v>
       </c>
+      <c r="I150" t="n">
+        <v>305.1820037841797</v>
+      </c>
+      <c r="J150" t="n">
+        <v>321.5105010986328</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.004872040571710423</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.01761461008806017</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4378,6 +6180,18 @@
       <c r="H151" t="n">
         <v>9215300</v>
       </c>
+      <c r="I151" t="n">
+        <v>304.213003540039</v>
+      </c>
+      <c r="J151" t="n">
+        <v>318.702001953125</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.03000612338190312</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.02008514542752977</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4404,6 +6218,18 @@
       <c r="H152" t="n">
         <v>7903700</v>
       </c>
+      <c r="I152" t="n">
+        <v>304.0310028076172</v>
+      </c>
+      <c r="J152" t="n">
+        <v>316.1340011596679</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.02063922063699031</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.02138623465443979</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4430,6 +6256,18 @@
       <c r="H153" t="n">
         <v>6918800</v>
       </c>
+      <c r="I153" t="n">
+        <v>302.8630035400391</v>
+      </c>
+      <c r="J153" t="n">
+        <v>313.7735015869141</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-0.02115718767415009</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.02192748468632758</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4456,6 +6294,18 @@
       <c r="H154" t="n">
         <v>5113400</v>
       </c>
+      <c r="I154" t="n">
+        <v>302.1730041503906</v>
+      </c>
+      <c r="J154" t="n">
+        <v>311.6320022583008</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.005370691541392025</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.02196412782929846</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4482,6 +6332,18 @@
       <c r="H155" t="n">
         <v>4886300</v>
       </c>
+      <c r="I155" t="n">
+        <v>301.9050048828125</v>
+      </c>
+      <c r="J155" t="n">
+        <v>310.0465026855469</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.002163024453668116</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.02173727000361984</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4508,6 +6370,18 @@
       <c r="H156" t="n">
         <v>5808000</v>
       </c>
+      <c r="I156" t="n">
+        <v>300.1160034179687</v>
+      </c>
+      <c r="J156" t="n">
+        <v>307.9975021362305</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-0.038882940306046</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.02435132757298811</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4534,6 +6408,18 @@
       <c r="H157" t="n">
         <v>15653300</v>
       </c>
+      <c r="I157" t="n">
+        <v>302.3750030517578</v>
+      </c>
+      <c r="J157" t="n">
+        <v>307.8335021972656</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.09006465386326701</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.0351582033509186</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4560,6 +6446,18 @@
       <c r="H158" t="n">
         <v>12991700</v>
       </c>
+      <c r="I158" t="n">
+        <v>305.9380035400391</v>
+      </c>
+      <c r="J158" t="n">
+        <v>308.3955032348633</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.02503361629829404</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.03437028818661986</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4586,6 +6484,18 @@
       <c r="H159" t="n">
         <v>8625800</v>
       </c>
+      <c r="I159" t="n">
+        <v>309.3530029296875</v>
+      </c>
+      <c r="J159" t="n">
+        <v>308.6270034790039</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-0.002222999950560745</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.03455015309442879</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4612,6 +6522,18 @@
       <c r="H160" t="n">
         <v>6489400</v>
       </c>
+      <c r="I160" t="n">
+        <v>312.2110015869141</v>
+      </c>
+      <c r="J160" t="n">
+        <v>308.6965026855469</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-0.01263509309090649</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.03536232100750567</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4638,6 +6560,18 @@
       <c r="H161" t="n">
         <v>6287300</v>
       </c>
+      <c r="I161" t="n">
+        <v>315.0350006103516</v>
+      </c>
+      <c r="J161" t="n">
+        <v>309.6240020751953</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.02630443266139393</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.03514646025520925</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4664,6 +6598,18 @@
       <c r="H162" t="n">
         <v>7131500</v>
       </c>
+      <c r="I162" t="n">
+        <v>317.8720001220703</v>
+      </c>
+      <c r="J162" t="n">
+        <v>310.9515014648438</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.01927534837217681</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.03510090883418365</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4690,6 +6636,18 @@
       <c r="H163" t="n">
         <v>5610200</v>
       </c>
+      <c r="I163" t="n">
+        <v>322.0700012207031</v>
+      </c>
+      <c r="J163" t="n">
+        <v>312.4665023803711</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.02083154112555508</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.033524554770354</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4716,6 +6674,18 @@
       <c r="H164" t="n">
         <v>4413700</v>
       </c>
+      <c r="I164" t="n">
+        <v>326.3850006103515</v>
+      </c>
+      <c r="J164" t="n">
+        <v>314.2790023803711</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.00810463038071263</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.03346170877594409</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4742,6 +6712,18 @@
       <c r="H165" t="n">
         <v>3298100</v>
       </c>
+      <c r="I165" t="n">
+        <v>330.4809997558594</v>
+      </c>
+      <c r="J165" t="n">
+        <v>316.193002319336</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-0.004393013623117725</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.03377785180488291</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4768,6 +6750,18 @@
       <c r="H166" t="n">
         <v>4205500</v>
       </c>
+      <c r="I166" t="n">
+        <v>335.3260009765625</v>
+      </c>
+      <c r="J166" t="n">
+        <v>317.7210021972656</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-0.01268923978798664</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.03011131523828336</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4794,6 +6788,18 @@
       <c r="H167" t="n">
         <v>4660500</v>
       </c>
+      <c r="I167" t="n">
+        <v>337.2220001220703</v>
+      </c>
+      <c r="J167" t="n">
+        <v>319.7985015869141</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-0.008821438520251856</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.01587066624108629</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4820,6 +6826,18 @@
       <c r="H168" t="n">
         <v>2657900</v>
       </c>
+      <c r="I168" t="n">
+        <v>338.2819976806641</v>
+      </c>
+      <c r="J168" t="n">
+        <v>322.1100006103516</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-0.001001963726592781</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.01445127474693177</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4846,6 +6864,18 @@
       <c r="H169" t="n">
         <v>4044800</v>
       </c>
+      <c r="I169" t="n">
+        <v>339.3369964599609</v>
+      </c>
+      <c r="J169" t="n">
+        <v>324.3449996948242</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.002300949295752308</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.01445459062082873</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4872,6 +6902,18 @@
       <c r="H170" t="n">
         <v>3965400</v>
       </c>
+      <c r="I170" t="n">
+        <v>340.0879974365234</v>
+      </c>
+      <c r="J170" t="n">
+        <v>326.1494995117188</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-0.02122939255842449</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.01570645482452573</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4898,6 +6940,18 @@
       <c r="H171" t="n">
         <v>7406400</v>
       </c>
+      <c r="I171" t="n">
+        <v>341.5039978027344</v>
+      </c>
+      <c r="J171" t="n">
+        <v>328.2694992065429</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.04579646472529153</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.01970267925828418</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4924,6 +6978,18 @@
       <c r="H172" t="n">
         <v>5350500</v>
       </c>
+      <c r="I172" t="n">
+        <v>341.5239990234375</v>
+      </c>
+      <c r="J172" t="n">
+        <v>329.6979995727539</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-0.02183771196533413</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.02051653509960104</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4950,6 +7016,18 @@
       <c r="H173" t="n">
         <v>6136000</v>
       </c>
+      <c r="I173" t="n">
+        <v>340.247998046875</v>
+      </c>
+      <c r="J173" t="n">
+        <v>331.1589996337891</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-0.01745268752588713</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.01980812547955354</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4976,6 +7054,18 @@
       <c r="H174" t="n">
         <v>17944500</v>
       </c>
+      <c r="I174" t="n">
+        <v>338.7899993896484</v>
+      </c>
+      <c r="J174" t="n">
+        <v>332.5875</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.002945452580946695</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.01953520935365902</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5002,6 +7092,18 @@
       <c r="H175" t="n">
         <v>22128300</v>
       </c>
+      <c r="I175" t="n">
+        <v>336.4269989013672</v>
+      </c>
+      <c r="J175" t="n">
+        <v>333.4539993286133</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-0.03170517441659482</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.02140111316909998</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5028,6 +7130,18 @@
       <c r="H176" t="n">
         <v>9947800</v>
       </c>
+      <c r="I176" t="n">
+        <v>334.7269989013672</v>
+      </c>
+      <c r="J176" t="n">
+        <v>335.0264999389648</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.006901494862672886</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.02169971636448876</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5054,6 +7168,18 @@
       <c r="H177" t="n">
         <v>6348000</v>
       </c>
+      <c r="I177" t="n">
+        <v>333.5920013427734</v>
+      </c>
+      <c r="J177" t="n">
+        <v>335.4070007324219</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.008083617130702381</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.02201394361191507</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5080,6 +7206,18 @@
       <c r="H178" t="n">
         <v>5586600</v>
       </c>
+      <c r="I178" t="n">
+        <v>332.5950012207031</v>
+      </c>
+      <c r="J178" t="n">
+        <v>335.4384994506836</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.003170857956301232</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.02209920169590773</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5106,6 +7244,18 @@
       <c r="H179" t="n">
         <v>5426600</v>
       </c>
+      <c r="I179" t="n">
+        <v>331.0290008544922</v>
+      </c>
+      <c r="J179" t="n">
+        <v>335.1829986572266</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-0.01966446245438991</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.0227319551637549</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5132,6 +7282,18 @@
       <c r="H180" t="n">
         <v>4623200</v>
       </c>
+      <c r="I180" t="n">
+        <v>330.0410003662109</v>
+      </c>
+      <c r="J180" t="n">
+        <v>335.0644989013672</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-0.00434039358074001</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.02196531753501883</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5158,6 +7320,18 @@
       <c r="H181" t="n">
         <v>5618800</v>
       </c>
+      <c r="I181" t="n">
+        <v>328.0070007324219</v>
+      </c>
+      <c r="J181" t="n">
+        <v>334.7554992675781</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.01463494409576782</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.01558808072979696</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5184,6 +7358,18 @@
       <c r="H182" t="n">
         <v>4221900</v>
       </c>
+      <c r="I182" t="n">
+        <v>327.1369995117187</v>
+      </c>
+      <c r="J182" t="n">
+        <v>334.3304992675781</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.01252105722216723</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.01547751455119218</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5210,6 +7396,18 @@
       <c r="H183" t="n">
         <v>5341500</v>
       </c>
+      <c r="I183" t="n">
+        <v>326.2769989013672</v>
+      </c>
+      <c r="J183" t="n">
+        <v>333.2624984741211</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-0.01760978900849175</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.01549445950215242</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5236,6 +7434,18 @@
       <c r="H184" t="n">
         <v>4318600</v>
       </c>
+      <c r="I184" t="n">
+        <v>324.661996459961</v>
+      </c>
+      <c r="J184" t="n">
+        <v>331.7259979248047</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-0.02027029317288287</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.0163049005782226</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5262,6 +7472,18 @@
       <c r="H185" t="n">
         <v>5064100</v>
       </c>
+      <c r="I185" t="n">
+        <v>324.2799957275391</v>
+      </c>
+      <c r="J185" t="n">
+        <v>330.3534973144531</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.005510943370405474</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.01349337909512222</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5288,6 +7510,18 @@
       <c r="H186" t="n">
         <v>3879700</v>
       </c>
+      <c r="I186" t="n">
+        <v>323.8229949951172</v>
+      </c>
+      <c r="J186" t="n">
+        <v>329.2749969482422</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.004635173952113547</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.01336233546100637</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5314,6 +7548,18 @@
       <c r="H187" t="n">
         <v>3988600</v>
       </c>
+      <c r="I187" t="n">
+        <v>323.3009948730469</v>
+      </c>
+      <c r="J187" t="n">
+        <v>328.4464981079101</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.006172488914093499</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.01322566174810783</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5340,6 +7586,16 @@
       <c r="H188" t="n">
         <v>33738800</v>
       </c>
+      <c r="I188" t="n">
+        <v>108.0400009155273</v>
+      </c>
+      <c r="J188" t="n">
+        <v>108.0400009155273</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5366,6 +7622,18 @@
       <c r="H189" t="n">
         <v>73546000</v>
       </c>
+      <c r="I189" t="n">
+        <v>104.0200004577637</v>
+      </c>
+      <c r="J189" t="n">
+        <v>104.0200004577637</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-0.07441689047942102</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5392,6 +7660,18 @@
       <c r="H190" t="n">
         <v>97798600</v>
       </c>
+      <c r="I190" t="n">
+        <v>101.1666666666667</v>
+      </c>
+      <c r="J190" t="n">
+        <v>101.1666666666667</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-0.04540000915527342</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.02051803355319005</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5418,6 +7698,18 @@
       <c r="H191" t="n">
         <v>49325300</v>
       </c>
+      <c r="I191" t="n">
+        <v>99.59000015258789</v>
+      </c>
+      <c r="J191" t="n">
+        <v>99.59000015258789</v>
+      </c>
+      <c r="K191" t="n">
+        <v>-0.006285339198360496</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.03419026442225348</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5444,6 +7736,18 @@
       <c r="H192" t="n">
         <v>43116600</v>
       </c>
+      <c r="I192" t="n">
+        <v>98.67200012207032</v>
+      </c>
+      <c r="J192" t="n">
+        <v>98.67200012207032</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.001475852717137238</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.03539201426370894</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5470,6 +7774,18 @@
       <c r="H193" t="n">
         <v>42513100</v>
       </c>
+      <c r="I193" t="n">
+        <v>98.05166625976562</v>
+      </c>
+      <c r="J193" t="n">
+        <v>98.05166625976562</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-0.0005263479132400217</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.03357213772288464</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5496,6 +7812,18 @@
       <c r="H194" t="n">
         <v>36964500</v>
       </c>
+      <c r="I194" t="n">
+        <v>97.91571371895927</v>
+      </c>
+      <c r="J194" t="n">
+        <v>97.91571371895927</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.02264351337526493</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.0357837031908745</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5522,6 +7850,18 @@
       <c r="H195" t="n">
         <v>35642100</v>
       </c>
+      <c r="I195" t="n">
+        <v>97.64874935150146</v>
+      </c>
+      <c r="J195" t="n">
+        <v>97.64874935150146</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-0.01359422982046721</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.03269253479283257</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5548,6 +7888,18 @@
       <c r="H196" t="n">
         <v>31095100</v>
       </c>
+      <c r="I196" t="n">
+        <v>97.30888790554471</v>
+      </c>
+      <c r="J196" t="n">
+        <v>97.30888790554471</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-0.01242433134863929</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.03030315176073192</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5574,6 +7926,18 @@
       <c r="H197" t="n">
         <v>28367200</v>
       </c>
+      <c r="I197" t="n">
+        <v>96.78299942016602</v>
+      </c>
+      <c r="J197" t="n">
+        <v>96.78299942016602</v>
+      </c>
+      <c r="K197" t="n">
+        <v>-0.02685266290802635</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.02857313348095634</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5600,6 +7964,18 @@
       <c r="H198" t="n">
         <v>29891100</v>
       </c>
+      <c r="I198" t="n">
+        <v>95.15899963378907</v>
+      </c>
+      <c r="J198" t="n">
+        <v>96.32999975031072</v>
+      </c>
+      <c r="K198" t="n">
+        <v>-0.002715915173402306</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.02732903763593748</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5626,6 +8002,18 @@
       <c r="H199" t="n">
         <v>32423700</v>
       </c>
+      <c r="I199" t="n">
+        <v>94.26599960327148</v>
+      </c>
+      <c r="J199" t="n">
+        <v>95.89166641235352</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-0.007952106020323257</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.01797238753735056</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5652,6 +8040,18 @@
       <c r="H200" t="n">
         <v>31295600</v>
       </c>
+      <c r="I200" t="n">
+        <v>93.65499954223633</v>
+      </c>
+      <c r="J200" t="n">
+        <v>95.38846118633563</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-0.01888658423703582</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.01340895167843141</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5678,6 +8078,18 @@
       <c r="H201" t="n">
         <v>22724300</v>
       </c>
+      <c r="I201" t="n">
+        <v>93.17899932861329</v>
+      </c>
+      <c r="J201" t="n">
+        <v>95.01071384974888</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.008393956494775257</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.01421572848775891</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5704,6 +8116,18 @@
       <c r="H202" t="n">
         <v>30546900</v>
       </c>
+      <c r="I202" t="n">
+        <v>92.70899963378906</v>
+      </c>
+      <c r="J202" t="n">
+        <v>94.69666646321615</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.002219806670631153</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.01425553038374001</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5730,6 +8154,18 @@
       <c r="H203" t="n">
         <v>26323900</v>
       </c>
+      <c r="I203" t="n">
+        <v>92.26500015258789</v>
+      </c>
+      <c r="J203" t="n">
+        <v>94.43499994277954</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.002325571178024344</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.01438225905967133</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5756,6 +8192,18 @@
       <c r="H204" t="n">
         <v>23328600</v>
       </c>
+      <c r="I204" t="n">
+        <v>91.78600006103515</v>
+      </c>
+      <c r="J204" t="n">
+        <v>94.30999980253331</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.01988725422472126</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.01381559741608026</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5782,6 +8230,18 @@
       <c r="H205" t="n">
         <v>30242500</v>
       </c>
+      <c r="I205" t="n">
+        <v>91.60999984741211</v>
+      </c>
+      <c r="J205" t="n">
+        <v>94.29388851589627</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.01852452745854771</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.01524482921480885</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5808,6 +8268,18 @@
       <c r="H206" t="n">
         <v>28288200</v>
       </c>
+      <c r="I206" t="n">
+        <v>91.70900039672851</v>
+      </c>
+      <c r="J206" t="n">
+        <v>94.36157869037829</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.0165922701945056</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.01574036322525449</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5834,6 +8306,18 @@
       <c r="H207" t="n">
         <v>24101500</v>
       </c>
+      <c r="I207" t="n">
+        <v>91.92099990844727</v>
+      </c>
+      <c r="J207" t="n">
+        <v>94.35199966430665</v>
+      </c>
+      <c r="K207" t="n">
+        <v>-0.0147520782077577</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.013678159586418</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5860,6 +8344,18 @@
       <c r="H208" t="n">
         <v>25395200</v>
       </c>
+      <c r="I208" t="n">
+        <v>92.20599975585938</v>
+      </c>
+      <c r="J208" t="n">
+        <v>93.68249969482422</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.005097200448835437</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.0135785532227853</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5886,6 +8382,18 @@
       <c r="H209" t="n">
         <v>24438900</v>
       </c>
+      <c r="I209" t="n">
+        <v>92.3650001525879</v>
+      </c>
+      <c r="J209" t="n">
+        <v>93.31549987792968</v>
+      </c>
+      <c r="K209" t="n">
+        <v>-0.02102480540610907</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.01528738651352595</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5912,6 +8420,18 @@
       <c r="H210" t="n">
         <v>32850100</v>
       </c>
+      <c r="I210" t="n">
+        <v>92.53100051879883</v>
+      </c>
+      <c r="J210" t="n">
+        <v>93.09300003051757</v>
+      </c>
+      <c r="K210" t="n">
+        <v>-0.01780705224117762</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.01512775758743728</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5938,6 +8458,18 @@
       <c r="H211" t="n">
         <v>31508600</v>
       </c>
+      <c r="I211" t="n">
+        <v>92.68700103759765</v>
+      </c>
+      <c r="J211" t="n">
+        <v>92.93300018310546</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.007142088898162147</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.0150735496361537</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5964,6 +8496,18 @@
       <c r="H212" t="n">
         <v>32303900</v>
       </c>
+      <c r="I212" t="n">
+        <v>93.08200073242188</v>
+      </c>
+      <c r="J212" t="n">
+        <v>92.89550018310547</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.02825655939790539</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.01724278515133028</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5990,6 +8534,18 @@
       <c r="H213" t="n">
         <v>38367300</v>
       </c>
+      <c r="I213" t="n">
+        <v>93.68600082397461</v>
+      </c>
+      <c r="J213" t="n">
+        <v>92.97550048828126</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.02440321540326584</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.01832375320335642</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6016,6 +8572,18 @@
       <c r="H214" t="n">
         <v>54499500</v>
       </c>
+      <c r="I214" t="n">
+        <v>94.56200103759765</v>
+      </c>
+      <c r="J214" t="n">
+        <v>93.1740005493164</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.04681508545000646</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.02208144414719782</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6042,6 +8610,18 @@
       <c r="H215" t="n">
         <v>76140300</v>
       </c>
+      <c r="I215" t="n">
+        <v>95.40600128173828</v>
+      </c>
+      <c r="J215" t="n">
+        <v>93.5080005645752</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.01375283856580056</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.02191145381836765</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6068,6 +8648,18 @@
       <c r="H216" t="n">
         <v>26033900</v>
       </c>
+      <c r="I216" t="n">
+        <v>96.04100112915039</v>
+      </c>
+      <c r="J216" t="n">
+        <v>93.87500076293945</v>
+      </c>
+      <c r="K216" t="n">
+        <v>-0.005172738473869343</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.02213650012744955</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6094,6 +8686,18 @@
       <c r="H217" t="n">
         <v>33122800</v>
       </c>
+      <c r="I217" t="n">
+        <v>97.20800094604492</v>
+      </c>
+      <c r="J217" t="n">
+        <v>94.56450042724609</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.03835961955271672</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.02278731004731384</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6120,6 +8724,18 @@
       <c r="H218" t="n">
         <v>32336900</v>
       </c>
+      <c r="I218" t="n">
+        <v>98.16500091552734</v>
+      </c>
+      <c r="J218" t="n">
+        <v>95.18550033569336</v>
+      </c>
+      <c r="K218" t="n">
+        <v>-0.01530607684467145</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.0243332671276483</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6146,6 +8762,18 @@
       <c r="H219" t="n">
         <v>31385800</v>
       </c>
+      <c r="I219" t="n">
+        <v>99.52500076293946</v>
+      </c>
+      <c r="J219" t="n">
+        <v>95.94500045776367</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.01957398667850052</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.02185301204144841</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6172,6 +8800,18 @@
       <c r="H220" t="n">
         <v>25245000</v>
       </c>
+      <c r="I220" t="n">
+        <v>101.0300003051758</v>
+      </c>
+      <c r="J220" t="n">
+        <v>96.7805004119873</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-0.001882218836964711</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.0197572143437186</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6198,6 +8838,18 @@
       <c r="H221" t="n">
         <v>25393400</v>
       </c>
+      <c r="I221" t="n">
+        <v>102.1699996948242</v>
+      </c>
+      <c r="J221" t="n">
+        <v>97.42850036621094</v>
+      </c>
+      <c r="K221" t="n">
+        <v>-0.02828587657040649</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.02413305497299653</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6224,6 +8876,18 @@
       <c r="H222" t="n">
         <v>24913500</v>
       </c>
+      <c r="I222" t="n">
+        <v>102.8809997558594</v>
+      </c>
+      <c r="J222" t="n">
+        <v>97.98150024414062</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-0.01649521626735617</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.02493028630440471</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6250,6 +8914,18 @@
       <c r="H223" t="n">
         <v>26148300</v>
       </c>
+      <c r="I223" t="n">
+        <v>103.4159996032715</v>
+      </c>
+      <c r="J223" t="n">
+        <v>98.55100021362304</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.005327554383145916</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.02421935592461264</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6276,6 +8952,18 @@
       <c r="H224" t="n">
         <v>25009800</v>
       </c>
+      <c r="I224" t="n">
+        <v>103.4409996032715</v>
+      </c>
+      <c r="J224" t="n">
+        <v>99.00150032043457</v>
+      </c>
+      <c r="K224" t="n">
+        <v>-0.00569187264346982</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.01954917980126643</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6302,6 +8990,18 @@
       <c r="H225" t="n">
         <v>28086500</v>
       </c>
+      <c r="I225" t="n">
+        <v>103.5949996948242</v>
+      </c>
+      <c r="J225" t="n">
+        <v>99.50050048828125</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.02645085188756346</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.02087875417439033</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6328,6 +9028,18 @@
       <c r="H226" t="n">
         <v>20719900</v>
       </c>
+      <c r="I226" t="n">
+        <v>103.8930000305176</v>
+      </c>
+      <c r="J226" t="n">
+        <v>99.96700057983398</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.008750035212590213</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.02083460039448759</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -6354,6 +9066,18 @@
       <c r="H227" t="n">
         <v>20377200</v>
       </c>
+      <c r="I227" t="n">
+        <v>103.8210006713867</v>
+      </c>
+      <c r="J227" t="n">
+        <v>100.5145008087158</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.0020017069597007</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.01676985477026244</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6380,6 +9104,18 @@
       <c r="H228" t="n">
         <v>21864200</v>
       </c>
+      <c r="I228" t="n">
+        <v>103.8940002441406</v>
+      </c>
+      <c r="J228" t="n">
+        <v>101.029500579834</v>
+      </c>
+      <c r="K228" t="n">
+        <v>-0.001617254508161303</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.01597173719567978</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -6406,6 +9142,18 @@
       <c r="H229" t="n">
         <v>34684200</v>
       </c>
+      <c r="I229" t="n">
+        <v>104.1580001831055</v>
+      </c>
+      <c r="J229" t="n">
+        <v>101.8415004730225</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.03763701469743452</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.01905333890993076</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -6432,6 +9180,18 @@
       <c r="H230" t="n">
         <v>19741500</v>
       </c>
+      <c r="I230" t="n">
+        <v>104.2470001220703</v>
+      </c>
+      <c r="J230" t="n">
+        <v>102.638500213623</v>
+      </c>
+      <c r="K230" t="n">
+        <v>-0.01790637787248617</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.02011808321909167</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -6458,6 +9218,18 @@
       <c r="H231" t="n">
         <v>18721300</v>
       </c>
+      <c r="I231" t="n">
+        <v>104.5530006408691</v>
+      </c>
+      <c r="J231" t="n">
+        <v>103.3615001678467</v>
+      </c>
+      <c r="K231" t="n">
+        <v>-0.00776058181714423</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.01769774538677563</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -6484,6 +9256,18 @@
       <c r="H232" t="n">
         <v>22761600</v>
       </c>
+      <c r="I232" t="n">
+        <v>104.9390007019043</v>
+      </c>
+      <c r="J232" t="n">
+        <v>103.9100002288818</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-0.008480979104647735</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.01687569913834418</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -6510,6 +9294,18 @@
       <c r="H233" t="n">
         <v>21650700</v>
       </c>
+      <c r="I233" t="n">
+        <v>105.568000793457</v>
+      </c>
+      <c r="J233" t="n">
+        <v>104.4920001983643</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0.02822658416885404</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.01856441913554446</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -6536,6 +9332,18 @@
       <c r="H234" t="n">
         <v>20745400</v>
       </c>
+      <c r="I234" t="n">
+        <v>106.3820007324219</v>
+      </c>
+      <c r="J234" t="n">
+        <v>104.9115001678467</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.0117385767114131</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.01814135447468315</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6562,6 +9370,18 @@
       <c r="H235" t="n">
         <v>29043400</v>
       </c>
+      <c r="I235" t="n">
+        <v>106.6240005493164</v>
+      </c>
+      <c r="J235" t="n">
+        <v>105.1095001220703</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-0.02777271095335287</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.01999109968031514</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -6588,6 +9408,18 @@
       <c r="H236" t="n">
         <v>17641400</v>
       </c>
+      <c r="I236" t="n">
+        <v>106.6450004577637</v>
+      </c>
+      <c r="J236" t="n">
+        <v>105.2690002441406</v>
+      </c>
+      <c r="K236" t="n">
+        <v>-0.01221570611474254</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.02035670228290479</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6614,6 +9446,18 @@
       <c r="H237" t="n">
         <v>16732000</v>
       </c>
+      <c r="I237" t="n">
+        <v>106.6349998474121</v>
+      </c>
+      <c r="J237" t="n">
+        <v>105.2280002593994</v>
+      </c>
+      <c r="K237" t="n">
+        <v>-0.0009513517970193286</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.02035206282307119</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6640,6 +9484,18 @@
       <c r="H238" t="n">
         <v>22515300</v>
       </c>
+      <c r="I238" t="n">
+        <v>106.7300003051758</v>
+      </c>
+      <c r="J238" t="n">
+        <v>105.3120002746582</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.008379403075048586</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.02050384758149455</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6666,6 +9522,18 @@
       <c r="H239" t="n">
         <v>22369800</v>
       </c>
+      <c r="I239" t="n">
+        <v>106.4310005187988</v>
+      </c>
+      <c r="J239" t="n">
+        <v>105.2945003509521</v>
+      </c>
+      <c r="K239" t="n">
+        <v>9.444887711373973e-05</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.01601383528558925</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6692,6 +9560,18 @@
       <c r="H240" t="n">
         <v>21410900</v>
       </c>
+      <c r="I240" t="n">
+        <v>106.4140007019043</v>
+      </c>
+      <c r="J240" t="n">
+        <v>105.3305004119873</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.008214475376311814</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.0153688463895365</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6718,6 +9598,18 @@
       <c r="H241" t="n">
         <v>31408100</v>
       </c>
+      <c r="I241" t="n">
+        <v>106.2630004882812</v>
+      </c>
+      <c r="J241" t="n">
+        <v>105.4080005645752</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-0.02032214079183947</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.01653773580941854</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6744,6 +9636,18 @@
       <c r="H242" t="n">
         <v>37068200</v>
       </c>
+      <c r="I242" t="n">
+        <v>106.1860000610352</v>
+      </c>
+      <c r="J242" t="n">
+        <v>105.5625003814697</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-0.001529525486815952</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.01634777794749715</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6770,6 +9674,18 @@
       <c r="H243" t="n">
         <v>38235200</v>
       </c>
+      <c r="I243" t="n">
+        <v>106.2040000915527</v>
+      </c>
+      <c r="J243" t="n">
+        <v>105.8860004425049</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.03752997523094526</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.01831748714263564</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6796,6 +9712,18 @@
       <c r="H244" t="n">
         <v>23957900</v>
       </c>
+      <c r="I244" t="n">
+        <v>106.0800003051758</v>
+      </c>
+      <c r="J244" t="n">
+        <v>106.2310005187988</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-0.001384160949314484</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.0178729527794563</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6822,6 +9750,18 @@
       <c r="H245" t="n">
         <v>20926300</v>
       </c>
+      <c r="I245" t="n">
+        <v>106.2090003967285</v>
+      </c>
+      <c r="J245" t="n">
+        <v>106.4165004730225</v>
+      </c>
+      <c r="K245" t="n">
+        <v>-0.004712642122322364</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.01534280138474974</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6848,6 +9788,18 @@
       <c r="H246" t="n">
         <v>20343100</v>
       </c>
+      <c r="I246" t="n">
+        <v>106.2950004577637</v>
+      </c>
+      <c r="J246" t="n">
+        <v>106.4700004577637</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-0.01606160748532082</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.01576199736594792</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6874,6 +9826,18 @@
       <c r="H247" t="n">
         <v>17116300</v>
       </c>
+      <c r="I247" t="n">
+        <v>106.4050010681152</v>
+      </c>
+      <c r="J247" t="n">
+        <v>106.5200004577637</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.001320998162049003</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.01574830391477272</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6900,6 +9864,18 @@
       <c r="H248" t="n">
         <v>19780600</v>
       </c>
+      <c r="I248" t="n">
+        <v>106.3360008239746</v>
+      </c>
+      <c r="J248" t="n">
+        <v>106.5330005645752</v>
+      </c>
+      <c r="K248" t="n">
+        <v>-0.008575232176374015</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.01579645068504474</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6925,6 +9901,18 @@
       </c>
       <c r="H249" t="n">
         <v>20705300</v>
+      </c>
+      <c r="I249" t="n">
+        <v>106.3665000915527</v>
+      </c>
+      <c r="J249" t="n">
+        <v>106.3987503051758</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.00955229790099188</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.01611867659409801</v>
       </c>
     </row>
   </sheetData>

--- a/data_storage/stock_market_data.xlsx
+++ b/data_storage/stock_market_data.xlsx
@@ -480,19 +480,19 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Ticker_Encoded</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>10_MA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>20_MA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Daily_Return</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Volatility</t>
@@ -500,8 +500,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>44964</v>
@@ -525,19 +527,23 @@
         <v>83322600</v>
       </c>
       <c r="I2" t="n">
-        <v>154.6499938964844</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>154.6499938964844</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>154.6499938964844</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>44965</v>
@@ -561,21 +567,23 @@
         <v>64120100</v>
       </c>
       <c r="I3" t="n">
-        <v>153.2849960327148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>153.2849960327148</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01765273737654593</v>
+        <v>153.2849960327148</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>44966</v>
@@ -599,21 +607,23 @@
         <v>56007100</v>
       </c>
       <c r="I4" t="n">
-        <v>152.4799957275391</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>152.4799957275391</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.006911552556695955</v>
+        <v>152.4799957275391</v>
       </c>
       <c r="L4" t="n">
         <v>0.007595164624093926</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>44967</v>
@@ -637,21 +647,23 @@
         <v>57450700</v>
       </c>
       <c r="I5" t="n">
-        <v>152.1124954223633</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>152.1124954223633</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0009279472007650558</v>
+        <v>152.1124954223633</v>
       </c>
       <c r="L5" t="n">
         <v>0.009328028079779505</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B6" s="2" t="n">
         <v>44970</v>
@@ -675,21 +687,23 @@
         <v>62199000</v>
       </c>
       <c r="I6" t="n">
-        <v>152.4599975585938</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>152.4599975585938</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01880677902118011</v>
+        <v>152.4599975585938</v>
       </c>
       <c r="L6" t="n">
         <v>0.01536352333047134</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>44971</v>
@@ -713,21 +727,23 @@
         <v>61707600</v>
       </c>
       <c r="I7" t="n">
-        <v>152.5833307902018</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>152.5833307902018</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.004224953717818392</v>
+        <v>152.5833307902018</v>
       </c>
       <c r="L7" t="n">
         <v>0.01337346342137161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>44972</v>
@@ -751,21 +767,23 @@
         <v>65573800</v>
       </c>
       <c r="I8" t="n">
-        <v>152.9757123674665</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>152.9757123674665</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01390342640497644</v>
+        <v>152.9757123674665</v>
       </c>
       <c r="L8" t="n">
         <v>0.01357336778741213</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B9" s="2" t="n">
         <v>44973</v>
@@ -789,21 +807,23 @@
         <v>68167900</v>
       </c>
       <c r="I9" t="n">
-        <v>153.0674991607666</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>153.0674991607666</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01042937679836953</v>
+        <v>153.0674991607666</v>
       </c>
       <c r="L9" t="n">
         <v>0.01309849428935751</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B10" s="2" t="n">
         <v>44974</v>
@@ -827,21 +847,23 @@
         <v>59144100</v>
       </c>
       <c r="I10" t="n">
-        <v>153.009999593099</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>153.009999593099</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007546702305912589</v>
+        <v>153.009999593099</v>
       </c>
       <c r="L10" t="n">
         <v>0.01235940654003694</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B11" s="2" t="n">
         <v>44978</v>
@@ -865,21 +887,23 @@
         <v>58867200</v>
       </c>
       <c r="I11" t="n">
-        <v>152.556999206543</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>152.556999206543</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.02667982460044827</v>
+        <v>152.556999206543</v>
       </c>
       <c r="L11" t="n">
         <v>0.01425908289889301</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B12" s="2" t="n">
         <v>44979</v>
@@ -903,21 +927,23 @@
         <v>51011300</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>151.9830001831055</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>152.225454157049</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.002896066453014878</v>
       </c>
       <c r="L12" t="n">
         <v>0.01364137258324167</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B13" s="2" t="n">
         <v>44980</v>
@@ -941,21 +967,23 @@
         <v>48394200</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>151.7309997558594</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>151.9899991353353</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.003290512539955603</v>
       </c>
       <c r="L13" t="n">
         <v>0.01284409391676195</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>44981</v>
@@ -979,21 +1007,23 @@
         <v>55469600</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>151.3150009155273</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>151.5838458721454</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.01800526969553307</v>
       </c>
       <c r="L14" t="n">
         <v>0.01379783267012996</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>44984</v>
@@ -1017,21 +1047,23 @@
         <v>44998500</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>151.0060012817383</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>151.322142464774</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.008247504598905886</v>
       </c>
       <c r="L15" t="n">
         <v>0.01420031227791139</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>44985</v>
@@ -1055,21 +1087,23 @@
         <v>50547000</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>150.3620010375977</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>151.061333211263</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-0.003447772533457294</v>
       </c>
       <c r="L16" t="n">
         <v>0.01218211968490797</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B17" s="2" t="n">
         <v>44986</v>
@@ -1093,21 +1127,23 @@
         <v>55479000</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>149.5730010986328</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>150.7018747329712</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.01424602164944799</v>
       </c>
       <c r="L17" t="n">
         <v>0.01258978132412703</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B18" s="2" t="n">
         <v>44987</v>
@@ -1131,21 +1167,23 @@
         <v>52238100</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>148.6310012817383</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>150.419999964097</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.00412914536918696</v>
       </c>
       <c r="L18" t="n">
         <v>0.01124982771702888</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B19" s="2" t="n">
         <v>44988</v>
@@ -1169,21 +1207,23 @@
         <v>70732300</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>148.3630004882812</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>150.4538887871636</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.03509008970381577</v>
       </c>
       <c r="L19" t="n">
         <v>0.01705192501412063</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B20" s="2" t="n">
         <v>44991</v>
@@ -1207,21 +1247,23 @@
         <v>87558000</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>148.4910003662109</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>150.6315789473684</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.01853938339660255</v>
       </c>
       <c r="L20" t="n">
         <v>0.01801393575204107</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B21" s="2" t="n">
         <v>44992</v>
@@ -1245,21 +1287,23 @@
         <v>56182000</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>148.8030014038086</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>150.6800003051758</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-0.01449649418835852</v>
       </c>
       <c r="L21" t="n">
         <v>0.01626207549232092</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>44993</v>
@@ -1283,21 +1327,23 @@
         <v>47204800</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>149.1990005493164</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>150.5910003662109</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.00837723590066819</v>
       </c>
       <c r="L22" t="n">
         <v>0.01638009780775785</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B23" s="2" t="n">
         <v>44994</v>
@@ -1321,21 +1367,23 @@
         <v>53833600</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>149.318000793457</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>150.5245002746582</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-0.01491462583974745</v>
       </c>
       <c r="L23" t="n">
         <v>0.01729898398519015</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B24" s="2" t="n">
         <v>44995</v>
@@ -1359,21 +1407,23 @@
         <v>68572400</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>149.4970001220703</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>150.4060005187988</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-0.0138787196275717</v>
       </c>
       <c r="L24" t="n">
         <v>0.0168403175550269</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B25" s="2" t="n">
         <v>44998</v>
@@ -1397,21 +1447,23 @@
         <v>84457100</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>149.7520004272461</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>150.3790008544922</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.01326600148621626</v>
       </c>
       <c r="L25" t="n">
         <v>0.01714112758717435</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>44999</v>
@@ -1435,21 +1487,23 @@
         <v>73695900</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>150.2699996948242</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>150.3160003662109</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01408915464869298</v>
       </c>
       <c r="L26" t="n">
         <v>0.01743440803806811</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B27" s="2" t="n">
         <v>45000</v>
@@ -1473,21 +1527,23 @@
         <v>77167900</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>151.0380004882813</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>150.305500793457</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.002621463823799131</v>
       </c>
       <c r="L27" t="n">
         <v>0.01629520854764278</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>45001</v>
@@ -1511,21 +1567,23 @@
         <v>76161100</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>152.0320007324219</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>150.3315010070801</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.01869403560796234</v>
       </c>
       <c r="L28" t="n">
         <v>0.01682305541788061</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B29" s="2" t="n">
         <v>45002</v>
@@ -1549,21 +1607,23 @@
         <v>98944600</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>152.4290008544922</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>150.3960006713867</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-0.00545400109224925</v>
       </c>
       <c r="L29" t="n">
         <v>0.01385488012977413</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>45005</v>
@@ -1587,21 +1647,23 @@
         <v>73641400</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>152.7860000610352</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>150.638500213623</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.01548383159022171</v>
       </c>
       <c r="L30" t="n">
         <v>0.01349539137680465</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B31" s="2" t="n">
         <v>45006</v>
@@ -1625,21 +1687,23 @@
         <v>73938300</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>153.5539993286133</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>151.1785003662109</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01194412297149716</v>
       </c>
       <c r="L31" t="n">
         <v>0.01236455572327333</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45007</v>
@@ -1663,21 +1727,23 @@
         <v>75701800</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>154.05</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>151.6245002746582</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-0.009103446505241086</v>
       </c>
       <c r="L32" t="n">
         <v>0.01305408860896506</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B33" s="2" t="n">
         <v>45008</v>
@@ -1701,21 +1767,23 @@
         <v>67622100</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>154.8839996337891</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>152.1010002136231</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.006969466083539766</v>
       </c>
       <c r="L33" t="n">
         <v>0.01139487147084837</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B34" s="2" t="n">
         <v>45009</v>
@@ -1739,21 +1807,23 @@
         <v>59196500</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>156.0589996337891</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>152.7779998779297</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.008305589788276002</v>
       </c>
       <c r="L34" t="n">
         <v>0.009149032934628978</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B35" s="2" t="n">
         <v>45012</v>
@@ -1777,21 +1847,23 @@
         <v>52390300</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>156.8399993896484</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>153.2959999084473</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-0.01229329934916146</v>
       </c>
       <c r="L35" t="n">
         <v>0.01083116710303605</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B36" s="2" t="n">
         <v>45013</v>
@@ -1815,21 +1887,23 @@
         <v>45992200</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>157.3459991455078</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>153.807999420166</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-0.003980318976947728</v>
       </c>
       <c r="L36" t="n">
         <v>0.01067579195126698</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B37" s="2" t="n">
         <v>45014</v>
@@ -1853,21 +1927,23 @@
         <v>51305700</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>158.1239990234375</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>154.5809997558594</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.01979074212984244</v>
       </c>
       <c r="L37" t="n">
         <v>0.01186551914646332</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B38" s="2" t="n">
         <v>45015</v>
@@ -1891,21 +1967,23 @@
         <v>49501700</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>158.7749984741211</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>155.4034996032715</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.009889881791605992</v>
       </c>
       <c r="L38" t="n">
         <v>0.01103718990657941</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B39" s="2" t="n">
         <v>45016</v>
@@ -1929,21 +2007,23 @@
         <v>68749800</v>
       </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>159.7649978637695</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>156.0969993591308</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.015644205941022</v>
       </c>
       <c r="L39" t="n">
         <v>0.01101272359393725</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B40" s="2" t="n">
         <v>45019</v>
@@ -1967,21 +2047,23 @@
         <v>56976200</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>160.6419982910156</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>156.7139991760254</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.00770166355044366</v>
       </c>
       <c r="L40" t="n">
         <v>0.01055431911533946</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B41" s="2" t="n">
         <v>45020</v>
@@ -2005,21 +2087,23 @@
         <v>46278300</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>161.2769989013672</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>157.4154991149902</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.003249643690696802</v>
       </c>
       <c r="L41" t="n">
         <v>0.0106149165882216</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B42" s="2" t="n">
         <v>45021</v>
@@ -2043,21 +2127,23 @@
         <v>51511700</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>161.8699981689453</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>157.9599990844727</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-0.01129028751342276</v>
       </c>
       <c r="L42" t="n">
         <v>0.01093191163435013</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B43" s="2" t="n">
         <v>45022</v>
@@ -2081,21 +2167,23 @@
         <v>45390100</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>162.4429992675781</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>158.6634994506836</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.005495903672834368</v>
       </c>
       <c r="L43" t="n">
         <v>0.01089353921859165</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B44" s="2" t="n">
         <v>45026</v>
@@ -2119,21 +2207,23 @@
         <v>47716900</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>162.6209991455078</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>159.3399993896484</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.01597233586979263</v>
       </c>
       <c r="L44" t="n">
         <v>0.01233821912610207</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B45" s="2" t="n">
         <v>45027</v>
@@ -2157,21 +2247,23 @@
         <v>47644200</v>
       </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>162.8729995727539</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>159.8564994812012</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.007591160506113748</v>
       </c>
       <c r="L45" t="n">
         <v>0.01184781750792144</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B46" s="2" t="n">
         <v>45028</v>
@@ -2195,21 +2287,23 @@
         <v>50133100</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>163.118000793457</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>160.2319999694824</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-0.004353214769634461</v>
       </c>
       <c r="L46" t="n">
         <v>0.01186805531471449</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B47" s="2" t="n">
         <v>45029</v>
@@ -2233,21 +2327,23 @@
         <v>68445600</v>
       </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>163.5970001220703</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>160.8604995727539</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.03410363052421039</v>
       </c>
       <c r="L47" t="n">
         <v>0.01480452417764881</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B48" s="2" t="n">
         <v>45030</v>
@@ -2271,21 +2367,23 @@
         <v>49386500</v>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>163.8820007324219</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>161.3284996032715</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.002113981939403597</v>
       </c>
       <c r="L48" t="n">
         <v>0.01467328459394604</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B49" s="2" t="n">
         <v>45033</v>
@@ -2309,21 +2407,23 @@
         <v>41516200</v>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>163.9150009155273</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>161.8399993896484</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.0001209915432451858</v>
       </c>
       <c r="L49" t="n">
         <v>0.01384826943020837</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B50" s="2" t="n">
         <v>45034</v>
@@ -2347,21 +2447,23 @@
         <v>49923000</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>163.9450012207031</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>162.2934997558594</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.007504723871135432</v>
       </c>
       <c r="L50" t="n">
         <v>0.01383668551182453</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B51" s="2" t="n">
         <v>45035</v>
@@ -2385,21 +2487,23 @@
         <v>47720200</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>164.1450012207031</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>162.7110000610352</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.006968244450070493</v>
       </c>
       <c r="L51" t="n">
         <v>0.01392525915758057</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B52" s="2" t="n">
         <v>45036</v>
@@ -2423,21 +2527,23 @@
         <v>52456400</v>
       </c>
       <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>164.434001159668</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>163.1519996643066</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-0.005846274281344988</v>
       </c>
       <c r="L52" t="n">
         <v>0.0134781492281941</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B53" s="2" t="n">
         <v>45037</v>
@@ -2461,21 +2567,23 @@
         <v>58337300</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>164.4700012207031</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>163.4565002441406</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-0.009780916193947831</v>
       </c>
       <c r="L53" t="n">
         <v>0.01387656480556146</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B54" s="2" t="n">
         <v>45040</v>
@@ -2499,21 +2607,23 @@
         <v>41949600</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>164.8000015258789</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>163.7105003356934</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.001878545331279513</v>
       </c>
       <c r="L54" t="n">
         <v>0.01264351916371561</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B55" s="2" t="n">
         <v>45041</v>
@@ -2537,21 +2647,23 @@
         <v>48714100</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>165.0970016479492</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>163.9850006103516</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-0.0094356592349637</v>
       </c>
       <c r="L55" t="n">
         <v>0.01281275169515364</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B56" s="2" t="n">
         <v>45042</v>
@@ -2575,21 +2687,23 @@
         <v>45498800</v>
       </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>165.4630004882812</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>164.2905006408691</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-6.112087295517821e-05</v>
       </c>
       <c r="L56" t="n">
         <v>0.01265069599848665</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B57" s="2" t="n">
         <v>45043</v>
@@ -2613,21 +2727,23 @@
         <v>64902300</v>
       </c>
       <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>165.7480010986328</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>164.6725006103516</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.02839526936524983</v>
       </c>
       <c r="L57" t="n">
         <v>0.01109043986500249</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B58" s="2" t="n">
         <v>45044</v>
@@ -2651,21 +2767,23 @@
         <v>55209200</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>166.1949996948242</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>165.0385002136231</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.007541054486406518</v>
       </c>
       <c r="L58" t="n">
         <v>0.01113559858736032</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B59" s="2" t="n">
         <v>45047</v>
@@ -2689,21 +2807,23 @@
         <v>52472900</v>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>166.6309997558594</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>165.2730003356934</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-0.0005303886243240852</v>
       </c>
       <c r="L59" t="n">
         <v>0.01115443514059714</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B60" s="2" t="n">
         <v>45048</v>
@@ -2727,21 +2847,23 @@
         <v>48425700</v>
       </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>166.8379989624023</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>165.3915000915527</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-0.006191420923589042</v>
       </c>
       <c r="L60" t="n">
         <v>0.01133334499620405</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B61" s="2" t="n">
         <v>45049</v>
@@ -2765,21 +2887,23 @@
         <v>65136000</v>
       </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>166.8199981689453</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>165.4824996948242</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-0.006467285993302041</v>
       </c>
       <c r="L61" t="n">
         <v>0.01138217112868831</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B62" s="2" t="n">
         <v>45050</v>
@@ -2803,21 +2927,23 @@
         <v>81235400</v>
       </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>166.7339981079102</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>165.5839996337891</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-0.009913429037699317</v>
       </c>
       <c r="L62" t="n">
         <v>0.01168104877875196</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>0</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="B63" s="2" t="n">
         <v>45051</v>
@@ -2841,21 +2967,23 @@
         <v>113316400</v>
       </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>167.5889984130859</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>166.0294998168945</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.04692692172716728</v>
       </c>
       <c r="L63" t="n">
         <v>0.0184532205048243</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B64" s="2" t="n">
         <v>44964</v>
@@ -2879,19 +3007,23 @@
         <v>50841400</v>
       </c>
       <c r="I64" t="n">
-        <v>267.5599975585937</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>267.5599975585937</v>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>267.5599975585937</v>
+      </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B65" s="2" t="n">
         <v>44965</v>
@@ -2915,21 +3047,23 @@
         <v>54686000</v>
       </c>
       <c r="I65" t="n">
-        <v>267.1450042724609</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>267.1450042724609</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.003102057780830281</v>
+        <v>267.1450042724609</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>2</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B66" s="2" t="n">
         <v>44966</v>
@@ -2953,21 +3087,23 @@
         <v>42375100</v>
       </c>
       <c r="I66" t="n">
-        <v>265.9700012207031</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>265.9700012207031</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.01165978982882443</v>
+        <v>265.9700012207031</v>
       </c>
       <c r="L66" t="n">
         <v>0.006051230362714104</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>2</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B67" s="2" t="n">
         <v>44967</v>
@@ -2991,21 +3127,23 @@
         <v>25818500</v>
       </c>
       <c r="I67" t="n">
-        <v>265.2525024414062</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>265.2525024414062</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.001972494588055484</v>
+        <v>265.2525024414062</v>
       </c>
       <c r="L67" t="n">
         <v>0.005297080640843005</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>2</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B68" s="2" t="n">
         <v>44970</v>
@@ -3029,21 +3167,23 @@
         <v>44630900</v>
       </c>
       <c r="I68" t="n">
-        <v>266.4660034179688</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>266.4660034179688</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03124287734706099</v>
+        <v>266.4660034179688</v>
       </c>
       <c r="L68" t="n">
         <v>0.01891169993334272</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>2</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B69" s="2" t="n">
         <v>44971</v>
@@ -3067,21 +3207,23 @@
         <v>37047900</v>
       </c>
       <c r="I69" t="n">
-        <v>267.4166717529297</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>267.4166717529297</v>
       </c>
       <c r="K69" t="n">
-        <v>0.003132854491264547</v>
+        <v>267.4166717529297</v>
       </c>
       <c r="L69" t="n">
         <v>0.01637950421047907</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>2</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B70" s="2" t="n">
         <v>44972</v>
@@ -3105,21 +3247,23 @@
         <v>28922400</v>
       </c>
       <c r="I70" t="n">
-        <v>267.6885768345424</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>267.6885768345424</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.01047141846238819</v>
+        <v>267.6885768345424</v>
       </c>
       <c r="L70" t="n">
         <v>0.01572564073043227</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>2</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B71" s="2" t="n">
         <v>44973</v>
@@ -3143,21 +3287,23 @@
         <v>29603600</v>
       </c>
       <c r="I71" t="n">
-        <v>266.9962539672852</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>266.9962539672852</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.02662265421336785</v>
+        <v>266.9962539672852</v>
       </c>
       <c r="L71" t="n">
         <v>0.01779398098173528</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>2</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B72" s="2" t="n">
         <v>44974</v>
@@ -3181,21 +3327,23 @@
         <v>30000100</v>
       </c>
       <c r="I72" t="n">
-        <v>266.0033365885417</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>266.0033365885417</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.01560174111430923</v>
+        <v>266.0033365885417</v>
       </c>
       <c r="L72" t="n">
         <v>0.01708644167852537</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>2</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B73" s="2" t="n">
         <v>44978</v>
@@ -3219,21 +3367,23 @@
         <v>28397400</v>
       </c>
       <c r="I73" t="n">
-        <v>264.670002746582</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>264.670002746582</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.02088661334821784</v>
+        <v>264.670002746582</v>
       </c>
       <c r="L73" t="n">
         <v>0.01690327833662571</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>2</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B74" s="2" t="n">
         <v>44979</v>
@@ -3257,21 +3407,23 @@
         <v>22491100</v>
       </c>
       <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
         <v>263.0650024414062</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>263.4736383611506</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-0.004590982983795788</v>
       </c>
       <c r="L74" t="n">
         <v>0.01594484311532295</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>2</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B75" s="2" t="n">
         <v>44980</v>
@@ -3295,21 +3447,23 @@
         <v>29219100</v>
       </c>
       <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
         <v>261.8690017700195</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>262.7483355204265</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.01296175037503855</v>
       </c>
       <c r="L75" t="n">
         <v>0.01704633152998997</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>2</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B76" s="2" t="n">
         <v>44981</v>
@@ -3333,21 +3487,23 @@
         <v>24990900</v>
       </c>
       <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
         <v>260.4290023803711</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>261.7076944204477</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-0.02178436612899848</v>
       </c>
       <c r="L76" t="n">
         <v>0.01780608388604706</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>2</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B77" s="2" t="n">
         <v>44984</v>
@@ -3371,21 +3527,23 @@
         <v>21190000</v>
       </c>
       <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
         <v>259.1350021362305</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>260.8828593662807</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.003771777693612144</v>
       </c>
       <c r="L77" t="n">
         <v>0.01802240791772046</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>2</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B78" s="2" t="n">
         <v>44985</v>
@@ -3409,21 +3567,23 @@
         <v>22491000</v>
       </c>
       <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
         <v>256.9450012207031</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>260.1186686197917</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-0.002958128726938902</v>
       </c>
       <c r="L78" t="n">
         <v>0.01293055495298974</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>2</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B79" s="2" t="n">
         <v>44986</v>
@@ -3447,21 +3607,23 @@
         <v>27565300</v>
       </c>
       <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
         <v>254.3550003051758</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>259.2531270980835</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-0.01262927559782412</v>
       </c>
       <c r="L79" t="n">
         <v>0.01232804002472166</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B80" s="2" t="n">
         <v>44987</v>
@@ -3485,21 +3647,23 @@
         <v>24808200</v>
       </c>
       <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
         <v>252.5339996337891</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>258.7741196576287</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01965321092265859</v>
       </c>
       <c r="L80" t="n">
         <v>0.01545246037654521</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B81" s="2" t="n">
         <v>44988</v>
@@ -3523,21 +3687,23 @@
         <v>30760100</v>
       </c>
       <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
         <v>251.8479995727539</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>258.5805570814344</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01664606214655429</v>
       </c>
       <c r="L81" t="n">
         <v>0.0153641506815669</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>2</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B82" s="2" t="n">
         <v>44991</v>
@@ -3561,21 +3727,23 @@
         <v>24109800</v>
       </c>
       <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
         <v>251.7289993286133</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>258.4905275043689</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.00618904725060565</v>
       </c>
       <c r="L82" t="n">
         <v>0.01484249626526217</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>2</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B83" s="2" t="n">
         <v>44992</v>
@@ -3599,21 +3767,23 @@
         <v>21473200</v>
       </c>
       <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
         <v>251.8769989013672</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>258.2735008239746</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-0.01058901885158758</v>
       </c>
       <c r="L83" t="n">
         <v>0.01356236974948381</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>2</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B84" s="2" t="n">
         <v>44993</v>
@@ -3637,21 +3807,23 @@
         <v>17340200</v>
       </c>
       <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
         <v>252.0959991455078</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>257.580500793457</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-0.001770595943533682</v>
       </c>
       <c r="L84" t="n">
         <v>0.01346988759620621</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>2</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B85" s="2" t="n">
         <v>44994</v>
@@ -3675,21 +3847,23 @@
         <v>26653400</v>
       </c>
       <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
         <v>251.8509994506836</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>256.8600006103516</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-0.005439454633911489</v>
       </c>
       <c r="L85" t="n">
         <v>0.0128909455631703</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>2</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B86" s="2" t="n">
         <v>44995</v>
@@ -3713,21 +3887,23 @@
         <v>28333900</v>
       </c>
       <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
         <v>251.7879989624024</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>256.1085006713867</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-0.01478285858455619</v>
       </c>
       <c r="L86" t="n">
         <v>0.01177161469334795</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>2</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B87" s="2" t="n">
         <v>44998</v>
@@ -3751,21 +3927,23 @@
         <v>33339700</v>
       </c>
       <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
         <v>252.1639984130859</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>255.6495002746582</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.02144093450892526</v>
       </c>
       <c r="L87" t="n">
         <v>0.0136143412127891</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>2</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B88" s="2" t="n">
         <v>44999</v>
@@ -3789,21 +3967,23 @@
         <v>33620300</v>
       </c>
       <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
         <v>253.3009994506836</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>255.1230003356933</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0270558066537383</v>
       </c>
       <c r="L88" t="n">
         <v>0.01565862076122142</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>2</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B89" s="2" t="n">
         <v>45000</v>
@@ -3827,21 +4007,23 @@
         <v>46028000</v>
       </c>
       <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
         <v>255.2179992675781</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>254.786499786377</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01783041429550547</v>
       </c>
       <c r="L89" t="n">
         <v>0.01488297287761629</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>2</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B90" s="2" t="n">
         <v>45001</v>
@@ -3865,21 +4047,23 @@
         <v>54768800</v>
       </c>
       <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
         <v>257.7270004272461</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>255.1305000305176</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.040536504169149</v>
       </c>
       <c r="L90" t="n">
         <v>0.01791483775300656</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>2</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B91" s="2" t="n">
         <v>45002</v>
@@ -3903,21 +4087,23 @@
         <v>69527400</v>
       </c>
       <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
         <v>260.141000366211</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>255.9944999694824</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.01169435309919131</v>
       </c>
       <c r="L91" t="n">
         <v>0.01776971875184977</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>2</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B92" s="2" t="n">
         <v>45005</v>
@@ -3941,21 +4127,23 @@
         <v>43466600</v>
       </c>
       <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
         <v>261.677001953125</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>256.7030006408692</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-0.02576667458101811</v>
       </c>
       <c r="L92" t="n">
         <v>0.02096135916372124</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>2</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B93" s="2" t="n">
         <v>45006</v>
@@ -3979,21 +4167,23 @@
         <v>34558700</v>
       </c>
       <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
         <v>263.6400024414062</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>257.7585006713867</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.005693669802799839</v>
       </c>
       <c r="L93" t="n">
         <v>0.02014423255389529</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>2</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B94" s="2" t="n">
         <v>45007</v>
@@ -4017,21 +4207,23 @@
         <v>34873300</v>
       </c>
       <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
         <v>265.4990036010742</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>258.797501373291</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-0.005442290309805031</v>
       </c>
       <c r="L94" t="n">
         <v>0.02036723252943675</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>2</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B95" s="2" t="n">
         <v>45008</v>
@@ -4055,21 +4247,23 @@
         <v>36610900</v>
       </c>
       <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
         <v>268.0330032348633</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>259.9420013427734</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.01972160177996973</v>
       </c>
       <c r="L95" t="n">
         <v>0.020174284570825</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>2</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B96" s="2" t="n">
         <v>45009</v>
@@ -4093,21 +4287,23 @@
         <v>28172000</v>
       </c>
       <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
         <v>271.2310043334961</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>261.5095016479492</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.01048045675908948</v>
       </c>
       <c r="L96" t="n">
         <v>0.01824351351594735</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>2</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B97" s="2" t="n">
         <v>45012</v>
@@ -4131,21 +4327,23 @@
         <v>26840200</v>
       </c>
       <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
         <v>273.4770050048828</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>262.8205017089844</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-0.01493389290382852</v>
       </c>
       <c r="L97" t="n">
         <v>0.01978503429635517</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>2</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B98" s="2" t="n">
         <v>45013</v>
@@ -4169,21 +4367,23 @@
         <v>21878600</v>
       </c>
       <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
         <v>274.9210052490234</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>264.1110023498535</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-0.004160915681914013</v>
       </c>
       <c r="L98" t="n">
         <v>0.01901238024505064</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>2</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B99" s="2" t="n">
         <v>45014</v>
@@ -4207,21 +4407,23 @@
         <v>25087000</v>
       </c>
       <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
         <v>276.4280059814453</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>265.8230026245117</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.019183950036463</v>
       </c>
       <c r="L99" t="n">
         <v>0.01911394707821483</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B100" s="2" t="n">
         <v>45015</v>
@@ -4245,21 +4447,23 @@
         <v>25053400</v>
       </c>
       <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
         <v>277.213003540039</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>267.4700019836426</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.0126197921789013</v>
       </c>
       <c r="L100" t="n">
         <v>0.01507201870991255</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>2</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B101" s="2" t="n">
         <v>45016</v>
@@ -4283,21 +4487,23 @@
         <v>32766000</v>
       </c>
       <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
         <v>278.1000030517578</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>269.1205017089844</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.01496215519325284</v>
       </c>
       <c r="L101" t="n">
         <v>0.0153170927293465</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>2</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B102" s="2" t="n">
         <v>45019</v>
@@ -4321,21 +4527,23 @@
         <v>24883300</v>
       </c>
       <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
         <v>279.6000030517578</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>270.6385025024414</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-0.0037113314323447</v>
       </c>
       <c r="L102" t="n">
         <v>0.01187900064034386</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>2</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B103" s="2" t="n">
         <v>45020</v>
@@ -4359,21 +4567,23 @@
         <v>25824300</v>
       </c>
       <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
         <v>280.9400024414062</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>272.2900024414063</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-0.000174140266106293</v>
       </c>
       <c r="L103" t="n">
         <v>0.01200935975083369</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>2</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B104" s="2" t="n">
         <v>45021</v>
@@ -4397,21 +4607,23 @@
         <v>22064800</v>
       </c>
       <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
         <v>282.1450012207031</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>273.8220024108887</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-0.009889255555128096</v>
       </c>
       <c r="L104" t="n">
         <v>0.01250510884288384</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>2</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B105" s="2" t="n">
         <v>45022</v>
@@ -4435,21 +4647,23 @@
         <v>29770300</v>
       </c>
       <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
         <v>283.5390014648438</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>275.7860023498535</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.02553284750344331</v>
       </c>
       <c r="L105" t="n">
         <v>0.01339881437822246</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>2</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B106" s="2" t="n">
         <v>45026</v>
@@ -4473,21 +4687,23 @@
         <v>23103000</v>
       </c>
       <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
         <v>284.4210021972656</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>277.8260032653808</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-0.00757884570926104</v>
       </c>
       <c r="L106" t="n">
         <v>0.01378810227370003</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>2</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B107" s="2" t="n">
         <v>45027</v>
@@ -4511,21 +4727,23 @@
         <v>27276600</v>
       </c>
       <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
         <v>285.0660003662109</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>279.2715026855469</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-0.02266846727293359</v>
       </c>
       <c r="L107" t="n">
         <v>0.01507437696072967</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>2</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B108" s="2" t="n">
         <v>45028</v>
@@ -4549,21 +4767,23 @@
         <v>27403400</v>
       </c>
       <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
         <v>285.8919982910156</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>280.4065017700195</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.002333570319428491</v>
       </c>
       <c r="L108" t="n">
         <v>0.01489862831964404</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>2</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B109" s="2" t="n">
         <v>45029</v>
@@ -4587,21 +4807,23 @@
         <v>24222700</v>
       </c>
       <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
         <v>286.8249969482422</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>281.6265014648437</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.02239940146834019</v>
       </c>
       <c r="L109" t="n">
         <v>0.0153141630021086</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>2</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B110" s="2" t="n">
         <v>45030</v>
@@ -4625,21 +4847,23 @@
         <v>20987900</v>
       </c>
       <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
         <v>287.0339996337891</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>282.1235015869141</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-0.01276560080113909</v>
       </c>
       <c r="L110" t="n">
         <v>0.0157116650197538</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>2</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B111" s="2" t="n">
         <v>45033</v>
@@ -4663,21 +4887,23 @@
         <v>23836200</v>
       </c>
       <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
         <v>287.0839996337891</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>282.5920013427734</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.009296054408186816</v>
       </c>
       <c r="L111" t="n">
         <v>0.01524107237752868</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>2</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B112" s="2" t="n">
         <v>45034</v>
@@ -4701,21 +4927,23 @@
         <v>20161800</v>
       </c>
       <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
         <v>287.197998046875</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>283.3990005493164</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-0.001488894369654492</v>
       </c>
       <c r="L112" t="n">
         <v>0.01519257265994436</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>2</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B113" s="2" t="n">
         <v>45035</v>
@@ -4739,21 +4967,23 @@
         <v>17150300</v>
       </c>
       <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
         <v>287.325</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>284.1325012207031</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.0002774806366772076</v>
       </c>
       <c r="L113" t="n">
         <v>0.01519101829180735</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>2</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B114" s="2" t="n">
         <v>45036</v>
@@ -4777,21 +5007,23 @@
         <v>23244400</v>
       </c>
       <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
         <v>287.5019989013672</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>284.8235000610351</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-0.008112417252349569</v>
       </c>
       <c r="L114" t="n">
         <v>0.01506528536142283</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>2</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B115" s="2" t="n">
         <v>45037</v>
@@ -4815,21 +5047,23 @@
         <v>21676400</v>
       </c>
       <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
         <v>286.9179992675781</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>285.2285003662109</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-0.001223220453167584</v>
       </c>
       <c r="L115" t="n">
         <v>0.0122896065605418</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>2</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B116" s="2" t="n">
         <v>45040</v>
@@ -4853,21 +5087,23 @@
         <v>26611000</v>
       </c>
       <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
         <v>286.1559967041015</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>285.2884994506836</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-0.01396283810049437</v>
       </c>
       <c r="L116" t="n">
         <v>0.01277070954758907</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>2</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B117" s="2" t="n">
         <v>45041</v>
@@ -4891,21 +5127,23 @@
         <v>45772200</v>
       </c>
       <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
         <v>285.4149993896484</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>285.2404998779297</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-0.02253602524585896</v>
       </c>
       <c r="L117" t="n">
         <v>0.01274762251314381</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>2</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B118" s="2" t="n">
         <v>45042</v>
@@ -4929,21 +5167,23 @@
         <v>64599200</v>
       </c>
       <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
         <v>286.6029998779297</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>286.2474990844727</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.0724347567962329</v>
       </c>
       <c r="L118" t="n">
         <v>0.02702658021713682</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>2</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B119" s="2" t="n">
         <v>45043</v>
@@ -4967,21 +5207,23 @@
         <v>46462600</v>
       </c>
       <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
         <v>288.1019989013672</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>287.4634979248047</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.03202759796683097</v>
       </c>
       <c r="L119" t="n">
         <v>0.02789533244087419</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>2</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B120" s="2" t="n">
         <v>45044</v>
@@ -5005,21 +5247,23 @@
         <v>36446700</v>
       </c>
       <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
         <v>290.213998413086</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>288.6239990234375</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.007971732770402085</v>
       </c>
       <c r="L120" t="n">
         <v>0.02715631185394762</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>2</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B121" s="2" t="n">
         <v>45047</v>
@@ -5043,21 +5287,23 @@
         <v>21294100</v>
       </c>
       <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
         <v>291.8899993896484</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>289.4869995117188</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-0.00553281309965481</v>
       </c>
       <c r="L121" t="n">
         <v>0.02744871951181714</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>2</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B122" s="2" t="n">
         <v>45048</v>
@@ -5081,21 +5327,23 @@
         <v>26404400</v>
       </c>
       <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
         <v>293.5940002441406</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>290.3959991455078</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-0.0004908819795874653</v>
       </c>
       <c r="L122" t="n">
         <v>0.02742032316698734</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>2</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B123" s="2" t="n">
         <v>45049</v>
@@ -5119,21 +5367,23 @@
         <v>22360800</v>
       </c>
       <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
         <v>295.1889984130859</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>291.256999206543</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-0.003307061830045477</v>
       </c>
       <c r="L123" t="n">
         <v>0.02752790134164099</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>2</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B124" s="2" t="n">
         <v>45050</v>
@@ -5157,21 +5407,23 @@
         <v>22519900</v>
       </c>
       <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
         <v>297.1190002441406</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>292.3104995727539</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.003318034776204515</v>
       </c>
       <c r="L124" t="n">
         <v>0.02712374721405317</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>2</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
       </c>
       <c r="B125" s="2" t="n">
         <v>45051</v>
@@ -5195,21 +5447,23 @@
         <v>28181200</v>
       </c>
       <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
         <v>299.6079986572266</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>293.2629989624023</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.01715723182457474</v>
       </c>
       <c r="L125" t="n">
         <v>0.02713715048089051</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>3</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B126" s="2" t="n">
         <v>44964</v>
@@ -5233,19 +5487,23 @@
         <v>6289400</v>
       </c>
       <c r="I126" t="n">
-        <v>362.9500122070313</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>362.9500122070313</v>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>362.9500122070313</v>
+      </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>3</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B127" s="2" t="n">
         <v>44965</v>
@@ -5269,21 +5527,23 @@
         <v>6253200</v>
       </c>
       <c r="I127" t="n">
-        <v>364.8899993896484</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
         <v>364.8899993896484</v>
       </c>
       <c r="K127" t="n">
-        <v>0.01069010672197224</v>
+        <v>364.8899993896484</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>3</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B128" s="2" t="n">
         <v>44966</v>
@@ -5307,21 +5567,23 @@
         <v>6901100</v>
       </c>
       <c r="I128" t="n">
-        <v>364.0933329264323</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
         <v>364.0933329264323</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.01180379666538689</v>
+        <v>364.0933329264323</v>
       </c>
       <c r="L128" t="n">
         <v>0.01590559162055669</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>3</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B129" s="2" t="n">
         <v>44967</v>
@@ -5345,21 +5607,23 @@
         <v>7291100</v>
       </c>
       <c r="I129" t="n">
-        <v>359.9099960327148</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
         <v>359.9099960327148</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.0417655576508621</v>
+        <v>359.9099960327148</v>
       </c>
       <c r="L129" t="n">
         <v>0.02631627992880083</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>3</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B130" s="2" t="n">
         <v>44970</v>
@@ -5383,21 +5647,23 @@
         <v>7134400</v>
       </c>
       <c r="I130" t="n">
-        <v>359.6419982910156</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
         <v>359.6419982910156</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03227205908968078</v>
+        <v>359.6419982910156</v>
       </c>
       <c r="L130" t="n">
         <v>0.03168242146273587</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>3</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B131" s="2" t="n">
         <v>44971</v>
@@ -5421,21 +5687,23 @@
         <v>4624800</v>
       </c>
       <c r="I131" t="n">
-        <v>359.6949971516927</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
         <v>359.6949971516927</v>
       </c>
       <c r="K131" t="n">
-        <v>0.003876465132240048</v>
+        <v>359.6949971516927</v>
       </c>
       <c r="L131" t="n">
         <v>0.02759267138081562</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>3</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B132" s="2" t="n">
         <v>44972</v>
@@ -5459,21 +5727,23 @@
         <v>3966000</v>
       </c>
       <c r="I132" t="n">
-        <v>359.9414280482701</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
         <v>359.9414280482701</v>
       </c>
       <c r="K132" t="n">
-        <v>0.004056067361137394</v>
+        <v>359.9414280482701</v>
       </c>
       <c r="L132" t="n">
         <v>0.02477798203291296</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>3</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B133" s="2" t="n">
         <v>44973</v>
@@ -5497,21 +5767,23 @@
         <v>5215700</v>
       </c>
       <c r="I133" t="n">
-        <v>358.7874984741211</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
         <v>358.7874984741211</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.02963317352318595</v>
+        <v>358.7874984741211</v>
       </c>
       <c r="L133" t="n">
         <v>0.02516593446800916</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>3</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B134" s="2" t="n">
         <v>44974</v>
@@ -5535,21 +5807,23 @@
         <v>5294700</v>
       </c>
       <c r="I134" t="n">
-        <v>357.5844421386719</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
         <v>357.5844421386719</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.007841236540169216</v>
+        <v>357.5844421386719</v>
       </c>
       <c r="L134" t="n">
         <v>0.02332702537763386</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>3</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B135" s="2" t="n">
         <v>44978</v>
@@ -5573,21 +5847,23 @@
         <v>5710300</v>
       </c>
       <c r="I135" t="n">
-        <v>355.5759979248047</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
         <v>355.5759979248047</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.0300609027242964</v>
+        <v>355.5759979248047</v>
       </c>
       <c r="L135" t="n">
         <v>0.02336259450866206</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>3</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B136" s="2" t="n">
         <v>44979</v>
@@ -5611,21 +5887,23 @@
         <v>4546200</v>
       </c>
       <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
         <v>352.7689971923828</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>353.6945440118963</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-0.007762948495370403</v>
       </c>
       <c r="L136" t="n">
         <v>0.02202646864297063</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>3</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B137" s="2" t="n">
         <v>44980</v>
@@ -5649,21 +5927,23 @@
         <v>13238700</v>
       </c>
       <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
         <v>348.4509979248047</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
         <v>351.1908315022786</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-0.0335344327000292</v>
       </c>
       <c r="L137" t="n">
         <v>0.02233960962319125</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>3</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B138" s="2" t="n">
         <v>44981</v>
@@ -5687,21 +5967,23 @@
         <v>6830700</v>
       </c>
       <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
         <v>343.9159973144531</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>348.5723055326022</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-0.02008342382999995</v>
       </c>
       <c r="L138" t="n">
         <v>0.02247549930493064</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>3</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B139" s="2" t="n">
         <v>44984</v>
@@ -5725,21 +6007,23 @@
         <v>6142600</v>
       </c>
       <c r="I139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" t="n">
         <v>341.4829986572266</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>346.7478550502232</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.01854013872291516</v>
       </c>
       <c r="L139" t="n">
         <v>0.02199932357134144</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>3</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B140" s="2" t="n">
         <v>44985</v>
@@ -5763,21 +6047,23 @@
         <v>3676100</v>
       </c>
       <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
         <v>337.838998413086</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>345.1066650390625</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-0.002786100052271867</v>
       </c>
       <c r="L140" t="n">
         <v>0.01734321932070102</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>3</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B141" s="2" t="n">
         <v>44986</v>
@@ -5801,21 +6087,23 @@
         <v>4911300</v>
       </c>
       <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
         <v>333.1910003662109</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>343.1299991607666</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-0.02685249360621078</v>
       </c>
       <c r="L141" t="n">
         <v>0.01723036392431758</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>3</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B142" s="2" t="n">
         <v>44987</v>
@@ -5839,21 +6127,23 @@
         <v>4911000</v>
       </c>
       <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
         <v>328.2369995117188</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>341.2917642032399</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-0.00510401316652187</v>
       </c>
       <c r="L142" t="n">
         <v>0.01641171450710519</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>3</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B143" s="2" t="n">
         <v>44988</v>
@@ -5877,21 +6167,23 @@
         <v>5953300</v>
       </c>
       <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
         <v>324.6839996337891</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>339.8411102294922</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.01058095338368581</v>
       </c>
       <c r="L143" t="n">
         <v>0.01720263805620868</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>3</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B144" s="2" t="n">
         <v>44991</v>
@@ -5915,21 +6207,23 @@
         <v>5660700</v>
       </c>
       <c r="I144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" t="n">
         <v>321.0910003662109</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>338.3773675215872</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-0.009994269844801673</v>
       </c>
       <c r="L144" t="n">
         <v>0.01717925470520626</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>3</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B145" s="2" t="n">
         <v>44992</v>
@@ -5953,21 +6247,23 @@
         <v>4553100</v>
       </c>
       <c r="I145" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" t="n">
         <v>318.1880004882813</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>336.881999206543</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-0.01140915159606748</v>
       </c>
       <c r="L145" t="n">
         <v>0.01580163548557612</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>3</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B146" s="2" t="n">
         <v>44993</v>
@@ -5991,21 +6287,23 @@
         <v>3479500</v>
       </c>
       <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
         <v>315.8790008544922</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>334.3239990234375</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.01076282073161261</v>
       </c>
       <c r="L146" t="n">
         <v>0.01698377185004885</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>3</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B147" s="2" t="n">
         <v>44994</v>
@@ -6029,21 +6327,23 @@
         <v>7443400</v>
       </c>
       <c r="I147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" t="n">
         <v>313.2920013427735</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>330.8714996337891</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-0.04493412034275135</v>
       </c>
       <c r="L147" t="n">
         <v>0.01920137811130448</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>3</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B148" s="2" t="n">
         <v>44995</v>
@@ -6067,21 +6367,23 @@
         <v>5759300</v>
       </c>
       <c r="I148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" t="n">
         <v>310.8530029296875</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>327.3845001220703</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-0.01685804632362997</v>
       </c>
       <c r="L148" t="n">
         <v>0.01900431914834112</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>3</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B149" s="2" t="n">
         <v>44998</v>
@@ -6105,21 +6407,23 @@
         <v>6292400</v>
       </c>
       <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
         <v>307.9010040283203</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>324.6920013427734</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.002561825300526621</v>
       </c>
       <c r="L149" t="n">
         <v>0.01712158389285126</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>3</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B150" s="2" t="n">
         <v>44999</v>
@@ -6143,21 +6447,23 @@
         <v>5956700</v>
       </c>
       <c r="I150" t="n">
+        <v>3</v>
+      </c>
+      <c r="J150" t="n">
         <v>305.1820037841797</v>
       </c>
-      <c r="J150" t="n">
+      <c r="K150" t="n">
         <v>321.5105010986328</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.004872040571710423</v>
       </c>
       <c r="L150" t="n">
         <v>0.01761461008806017</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>3</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B151" s="2" t="n">
         <v>45000</v>
@@ -6181,21 +6487,23 @@
         <v>9215300</v>
       </c>
       <c r="I151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" t="n">
         <v>304.213003540039</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>318.702001953125</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.03000612338190312</v>
       </c>
       <c r="L151" t="n">
         <v>0.02008514542752977</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>3</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B152" s="2" t="n">
         <v>45001</v>
@@ -6219,21 +6527,23 @@
         <v>7903700</v>
       </c>
       <c r="I152" t="n">
+        <v>3</v>
+      </c>
+      <c r="J152" t="n">
         <v>304.0310028076172</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>316.1340011596679</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.02063922063699031</v>
       </c>
       <c r="L152" t="n">
         <v>0.02138623465443979</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>3</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B153" s="2" t="n">
         <v>45002</v>
@@ -6257,21 +6567,23 @@
         <v>6918800</v>
       </c>
       <c r="I153" t="n">
+        <v>3</v>
+      </c>
+      <c r="J153" t="n">
         <v>302.8630035400391</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>313.7735015869141</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-0.02115718767415009</v>
       </c>
       <c r="L153" t="n">
         <v>0.02192748468632758</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>3</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B154" s="2" t="n">
         <v>45005</v>
@@ -6295,21 +6607,23 @@
         <v>5113400</v>
       </c>
       <c r="I154" t="n">
+        <v>3</v>
+      </c>
+      <c r="J154" t="n">
         <v>302.1730041503906</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>311.6320022583008</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.005370691541392025</v>
       </c>
       <c r="L154" t="n">
         <v>0.02196412782929846</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>3</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B155" s="2" t="n">
         <v>45006</v>
@@ -6333,21 +6647,23 @@
         <v>4886300</v>
       </c>
       <c r="I155" t="n">
+        <v>3</v>
+      </c>
+      <c r="J155" t="n">
         <v>301.9050048828125</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>310.0465026855469</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.002163024453668116</v>
       </c>
       <c r="L155" t="n">
         <v>0.02173727000361984</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>3</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B156" s="2" t="n">
         <v>45007</v>
@@ -6371,21 +6687,23 @@
         <v>5808000</v>
       </c>
       <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
         <v>300.1160034179687</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>307.9975021362305</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-0.038882940306046</v>
       </c>
       <c r="L156" t="n">
         <v>0.02435132757298811</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>3</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B157" s="2" t="n">
         <v>45008</v>
@@ -6409,21 +6727,23 @@
         <v>15653300</v>
       </c>
       <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
         <v>302.3750030517578</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>307.8335021972656</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.09006465386326701</v>
       </c>
       <c r="L157" t="n">
         <v>0.0351582033509186</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>3</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B158" s="2" t="n">
         <v>45009</v>
@@ -6447,21 +6767,23 @@
         <v>12991700</v>
       </c>
       <c r="I158" t="n">
+        <v>3</v>
+      </c>
+      <c r="J158" t="n">
         <v>305.9380035400391</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>308.3955032348633</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.02503361629829404</v>
       </c>
       <c r="L158" t="n">
         <v>0.03437028818661986</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>3</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B159" s="2" t="n">
         <v>45012</v>
@@ -6485,21 +6807,23 @@
         <v>8625800</v>
       </c>
       <c r="I159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" t="n">
         <v>309.3530029296875</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>308.6270034790039</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-0.002222999950560745</v>
       </c>
       <c r="L159" t="n">
         <v>0.03455015309442879</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>3</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B160" s="2" t="n">
         <v>45013</v>
@@ -6523,21 +6847,23 @@
         <v>6489400</v>
       </c>
       <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
         <v>312.2110015869141</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>308.6965026855469</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-0.01263509309090649</v>
       </c>
       <c r="L160" t="n">
         <v>0.03536232100750567</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>3</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B161" s="2" t="n">
         <v>45014</v>
@@ -6561,21 +6887,23 @@
         <v>6287300</v>
       </c>
       <c r="I161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" t="n">
         <v>315.0350006103516</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>309.6240020751953</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.02630443266139393</v>
       </c>
       <c r="L161" t="n">
         <v>0.03514646025520925</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>3</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B162" s="2" t="n">
         <v>45015</v>
@@ -6599,21 +6927,23 @@
         <v>7131500</v>
       </c>
       <c r="I162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" t="n">
         <v>317.8720001220703</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>310.9515014648438</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.01927534837217681</v>
       </c>
       <c r="L162" t="n">
         <v>0.03510090883418365</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>3</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B163" s="2" t="n">
         <v>45016</v>
@@ -6637,21 +6967,23 @@
         <v>5610200</v>
       </c>
       <c r="I163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" t="n">
         <v>322.0700012207031</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>312.4665023803711</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.02083154112555508</v>
       </c>
       <c r="L163" t="n">
         <v>0.033524554770354</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>3</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B164" s="2" t="n">
         <v>45019</v>
@@ -6675,21 +7007,23 @@
         <v>4413700</v>
       </c>
       <c r="I164" t="n">
+        <v>3</v>
+      </c>
+      <c r="J164" t="n">
         <v>326.3850006103515</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>314.2790023803711</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.00810463038071263</v>
       </c>
       <c r="L164" t="n">
         <v>0.03346170877594409</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>3</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B165" s="2" t="n">
         <v>45020</v>
@@ -6713,21 +7047,23 @@
         <v>3298100</v>
       </c>
       <c r="I165" t="n">
+        <v>3</v>
+      </c>
+      <c r="J165" t="n">
         <v>330.4809997558594</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>316.193002319336</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-0.004393013623117725</v>
       </c>
       <c r="L165" t="n">
         <v>0.03377785180488291</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>3</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B166" s="2" t="n">
         <v>45021</v>
@@ -6751,21 +7087,23 @@
         <v>4205500</v>
       </c>
       <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="n">
         <v>335.3260009765625</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>317.7210021972656</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-0.01268923978798664</v>
       </c>
       <c r="L166" t="n">
         <v>0.03011131523828336</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>3</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B167" s="2" t="n">
         <v>45022</v>
@@ -6789,21 +7127,23 @@
         <v>4660500</v>
       </c>
       <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="n">
         <v>337.2220001220703</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>319.7985015869141</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-0.008821438520251856</v>
       </c>
       <c r="L167" t="n">
         <v>0.01587066624108629</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>3</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B168" s="2" t="n">
         <v>45026</v>
@@ -6827,21 +7167,23 @@
         <v>2657900</v>
       </c>
       <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
         <v>338.2819976806641</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>322.1100006103516</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-0.001001963726592781</v>
       </c>
       <c r="L168" t="n">
         <v>0.01445127474693177</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>3</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B169" s="2" t="n">
         <v>45027</v>
@@ -6865,21 +7207,23 @@
         <v>4044800</v>
       </c>
       <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
         <v>339.3369964599609</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>324.3449996948242</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-0.002300949295752308</v>
       </c>
       <c r="L169" t="n">
         <v>0.01445459062082873</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>3</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B170" s="2" t="n">
         <v>45028</v>
@@ -6903,21 +7247,23 @@
         <v>3965400</v>
       </c>
       <c r="I170" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" t="n">
         <v>340.0879974365234</v>
       </c>
-      <c r="J170" t="n">
+      <c r="K170" t="n">
         <v>326.1494995117188</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-0.02122939255842449</v>
       </c>
       <c r="L170" t="n">
         <v>0.01570645482452573</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>3</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B171" s="2" t="n">
         <v>45029</v>
@@ -6941,21 +7287,23 @@
         <v>7406400</v>
       </c>
       <c r="I171" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" t="n">
         <v>341.5039978027344</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>328.2694992065429</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.04579646472529153</v>
       </c>
       <c r="L171" t="n">
         <v>0.01970267925828418</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>3</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B172" s="2" t="n">
         <v>45030</v>
@@ -6979,21 +7327,23 @@
         <v>5350500</v>
       </c>
       <c r="I172" t="n">
+        <v>3</v>
+      </c>
+      <c r="J172" t="n">
         <v>341.5239990234375</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>329.6979995727539</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-0.02183771196533413</v>
       </c>
       <c r="L172" t="n">
         <v>0.02051653509960104</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>3</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B173" s="2" t="n">
         <v>45033</v>
@@ -7017,21 +7367,23 @@
         <v>6136000</v>
       </c>
       <c r="I173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" t="n">
         <v>340.247998046875</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>331.1589996337891</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-0.01745268752588713</v>
       </c>
       <c r="L173" t="n">
         <v>0.01980812547955354</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>3</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B174" s="2" t="n">
         <v>45034</v>
@@ -7055,21 +7407,23 @@
         <v>17944500</v>
       </c>
       <c r="I174" t="n">
+        <v>3</v>
+      </c>
+      <c r="J174" t="n">
         <v>338.7899993896484</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>332.5875</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.002945452580946695</v>
       </c>
       <c r="L174" t="n">
         <v>0.01953520935365902</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>3</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B175" s="2" t="n">
         <v>45035</v>
@@ -7093,21 +7447,23 @@
         <v>22128300</v>
       </c>
       <c r="I175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" t="n">
         <v>336.4269989013672</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>333.4539993286133</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-0.03170517441659482</v>
       </c>
       <c r="L175" t="n">
         <v>0.02140111316909998</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>3</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B176" s="2" t="n">
         <v>45036</v>
@@ -7131,21 +7487,23 @@
         <v>9947800</v>
       </c>
       <c r="I176" t="n">
+        <v>3</v>
+      </c>
+      <c r="J176" t="n">
         <v>334.7269989013672</v>
       </c>
-      <c r="J176" t="n">
+      <c r="K176" t="n">
         <v>335.0264999389648</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.006901494862672886</v>
       </c>
       <c r="L176" t="n">
         <v>0.02169971636448876</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>3</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B177" s="2" t="n">
         <v>45037</v>
@@ -7169,21 +7527,23 @@
         <v>6348000</v>
       </c>
       <c r="I177" t="n">
+        <v>3</v>
+      </c>
+      <c r="J177" t="n">
         <v>333.5920013427734</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>335.4070007324219</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.008083617130702381</v>
       </c>
       <c r="L177" t="n">
         <v>0.02201394361191507</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>3</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B178" s="2" t="n">
         <v>45040</v>
@@ -7207,21 +7567,23 @@
         <v>5586600</v>
       </c>
       <c r="I178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J178" t="n">
         <v>332.5950012207031</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>335.4384994506836</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.003170857956301232</v>
       </c>
       <c r="L178" t="n">
         <v>0.02209920169590773</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>3</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B179" s="2" t="n">
         <v>45041</v>
@@ -7245,21 +7607,23 @@
         <v>5426600</v>
       </c>
       <c r="I179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J179" t="n">
         <v>331.0290008544922</v>
       </c>
-      <c r="J179" t="n">
+      <c r="K179" t="n">
         <v>335.1829986572266</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-0.01966446245438991</v>
       </c>
       <c r="L179" t="n">
         <v>0.0227319551637549</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>3</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B180" s="2" t="n">
         <v>45042</v>
@@ -7283,21 +7647,23 @@
         <v>4623200</v>
       </c>
       <c r="I180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J180" t="n">
         <v>330.0410003662109</v>
       </c>
-      <c r="J180" t="n">
+      <c r="K180" t="n">
         <v>335.0644989013672</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-0.00434039358074001</v>
       </c>
       <c r="L180" t="n">
         <v>0.02196531753501883</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>3</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B181" s="2" t="n">
         <v>45043</v>
@@ -7321,21 +7687,23 @@
         <v>5618800</v>
       </c>
       <c r="I181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J181" t="n">
         <v>328.0070007324219</v>
       </c>
-      <c r="J181" t="n">
+      <c r="K181" t="n">
         <v>334.7554992675781</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.01463494409576782</v>
       </c>
       <c r="L181" t="n">
         <v>0.01558808072979696</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>3</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B182" s="2" t="n">
         <v>45044</v>
@@ -7359,21 +7727,23 @@
         <v>4221900</v>
       </c>
       <c r="I182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J182" t="n">
         <v>327.1369995117187</v>
       </c>
-      <c r="J182" t="n">
+      <c r="K182" t="n">
         <v>334.3304992675781</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.01252105722216723</v>
       </c>
       <c r="L182" t="n">
         <v>0.01547751455119218</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>3</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B183" s="2" t="n">
         <v>45047</v>
@@ -7397,21 +7767,23 @@
         <v>5341500</v>
       </c>
       <c r="I183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" t="n">
         <v>326.2769989013672</v>
       </c>
-      <c r="J183" t="n">
+      <c r="K183" t="n">
         <v>333.2624984741211</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-0.01760978900849175</v>
       </c>
       <c r="L183" t="n">
         <v>0.01549445950215242</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>3</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B184" s="2" t="n">
         <v>45048</v>
@@ -7435,21 +7807,23 @@
         <v>4318600</v>
       </c>
       <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
         <v>324.661996459961</v>
       </c>
-      <c r="J184" t="n">
+      <c r="K184" t="n">
         <v>331.7259979248047</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-0.02027029317288287</v>
       </c>
       <c r="L184" t="n">
         <v>0.0163049005782226</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>3</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B185" s="2" t="n">
         <v>45049</v>
@@ -7473,21 +7847,23 @@
         <v>5064100</v>
       </c>
       <c r="I185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J185" t="n">
         <v>324.2799957275391</v>
       </c>
-      <c r="J185" t="n">
+      <c r="K185" t="n">
         <v>330.3534973144531</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.005510943370405474</v>
       </c>
       <c r="L185" t="n">
         <v>0.01349337909512222</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>3</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B186" s="2" t="n">
         <v>45050</v>
@@ -7511,21 +7887,23 @@
         <v>3879700</v>
       </c>
       <c r="I186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" t="n">
         <v>323.8229949951172</v>
       </c>
-      <c r="J186" t="n">
+      <c r="K186" t="n">
         <v>329.2749969482422</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.004635173952113547</v>
       </c>
       <c r="L186" t="n">
         <v>0.01336233546100637</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>3</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
       </c>
       <c r="B187" s="2" t="n">
         <v>45051</v>
@@ -7549,21 +7927,23 @@
         <v>3988600</v>
       </c>
       <c r="I187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" t="n">
         <v>323.3009948730469</v>
       </c>
-      <c r="J187" t="n">
+      <c r="K187" t="n">
         <v>328.4464981079101</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.006172488914093499</v>
       </c>
       <c r="L187" t="n">
         <v>0.01322566174810783</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>1</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B188" s="2" t="n">
         <v>44964</v>
@@ -7587,19 +7967,23 @@
         <v>33738800</v>
       </c>
       <c r="I188" t="n">
-        <v>108.0400009155273</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>108.0400009155273</v>
       </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>108.0400009155273</v>
+      </c>
       <c r="L188" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>1</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B189" s="2" t="n">
         <v>44965</v>
@@ -7623,21 +8007,23 @@
         <v>73546000</v>
       </c>
       <c r="I189" t="n">
-        <v>104.0200004577637</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
         <v>104.0200004577637</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.07441689047942102</v>
+        <v>104.0200004577637</v>
       </c>
       <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>1</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B190" s="2" t="n">
         <v>44966</v>
@@ -7661,21 +8047,23 @@
         <v>97798600</v>
       </c>
       <c r="I190" t="n">
-        <v>101.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>101.1666666666667</v>
       </c>
       <c r="K190" t="n">
-        <v>-0.04540000915527342</v>
+        <v>101.1666666666667</v>
       </c>
       <c r="L190" t="n">
         <v>0.02051803355319005</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>1</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B191" s="2" t="n">
         <v>44967</v>
@@ -7699,21 +8087,23 @@
         <v>49325300</v>
       </c>
       <c r="I191" t="n">
-        <v>99.59000015258789</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>99.59000015258789</v>
       </c>
       <c r="K191" t="n">
-        <v>-0.006285339198360496</v>
+        <v>99.59000015258789</v>
       </c>
       <c r="L191" t="n">
         <v>0.03419026442225348</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>1</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B192" s="2" t="n">
         <v>44970</v>
@@ -7737,21 +8127,23 @@
         <v>43116600</v>
       </c>
       <c r="I192" t="n">
-        <v>98.67200012207032</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>98.67200012207032</v>
       </c>
       <c r="K192" t="n">
-        <v>0.001475852717137238</v>
+        <v>98.67200012207032</v>
       </c>
       <c r="L192" t="n">
         <v>0.03539201426370894</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>1</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B193" s="2" t="n">
         <v>44971</v>
@@ -7775,21 +8167,23 @@
         <v>42513100</v>
       </c>
       <c r="I193" t="n">
-        <v>98.05166625976562</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
         <v>98.05166625976562</v>
       </c>
       <c r="K193" t="n">
-        <v>-0.0005263479132400217</v>
+        <v>98.05166625976562</v>
       </c>
       <c r="L193" t="n">
         <v>0.03357213772288464</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>1</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B194" s="2" t="n">
         <v>44972</v>
@@ -7813,21 +8207,23 @@
         <v>36964500</v>
       </c>
       <c r="I194" t="n">
-        <v>97.91571371895927</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
         <v>97.91571371895927</v>
       </c>
       <c r="K194" t="n">
-        <v>0.02264351337526493</v>
+        <v>97.91571371895927</v>
       </c>
       <c r="L194" t="n">
         <v>0.0357837031908745</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>1</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B195" s="2" t="n">
         <v>44973</v>
@@ -7851,21 +8247,23 @@
         <v>35642100</v>
       </c>
       <c r="I195" t="n">
-        <v>97.64874935150146</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
         <v>97.64874935150146</v>
       </c>
       <c r="K195" t="n">
-        <v>-0.01359422982046721</v>
+        <v>97.64874935150146</v>
       </c>
       <c r="L195" t="n">
         <v>0.03269253479283257</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>1</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B196" s="2" t="n">
         <v>44974</v>
@@ -7889,21 +8287,23 @@
         <v>31095100</v>
       </c>
       <c r="I196" t="n">
-        <v>97.30888790554471</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>97.30888790554471</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.01242433134863929</v>
+        <v>97.30888790554471</v>
       </c>
       <c r="L196" t="n">
         <v>0.03030315176073192</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>1</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B197" s="2" t="n">
         <v>44978</v>
@@ -7927,21 +8327,23 @@
         <v>28367200</v>
       </c>
       <c r="I197" t="n">
-        <v>96.78299942016602</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>96.78299942016602</v>
       </c>
       <c r="K197" t="n">
-        <v>-0.02685266290802635</v>
+        <v>96.78299942016602</v>
       </c>
       <c r="L197" t="n">
         <v>0.02857313348095634</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>1</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B198" s="2" t="n">
         <v>44979</v>
@@ -7965,21 +8367,23 @@
         <v>29891100</v>
       </c>
       <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
         <v>95.15899963378907</v>
       </c>
-      <c r="J198" t="n">
+      <c r="K198" t="n">
         <v>96.32999975031072</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-0.002715915173402306</v>
       </c>
       <c r="L198" t="n">
         <v>0.02732903763593748</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>1</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B199" s="2" t="n">
         <v>44980</v>
@@ -8003,21 +8407,23 @@
         <v>32423700</v>
       </c>
       <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
         <v>94.26599960327148</v>
       </c>
-      <c r="J199" t="n">
+      <c r="K199" t="n">
         <v>95.89166641235352</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-0.007952106020323257</v>
       </c>
       <c r="L199" t="n">
         <v>0.01797238753735056</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>1</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B200" s="2" t="n">
         <v>44981</v>
@@ -8041,21 +8447,23 @@
         <v>31295600</v>
       </c>
       <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
         <v>93.65499954223633</v>
       </c>
-      <c r="J200" t="n">
+      <c r="K200" t="n">
         <v>95.38846118633563</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-0.01888658423703582</v>
       </c>
       <c r="L200" t="n">
         <v>0.01340895167843141</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>1</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B201" s="2" t="n">
         <v>44984</v>
@@ -8079,21 +8487,23 @@
         <v>22724300</v>
       </c>
       <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
         <v>93.17899932861329</v>
       </c>
-      <c r="J201" t="n">
+      <c r="K201" t="n">
         <v>95.01071384974888</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.008393956494775257</v>
       </c>
       <c r="L201" t="n">
         <v>0.01421572848775891</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>1</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B202" s="2" t="n">
         <v>44985</v>
@@ -8117,21 +8527,23 @@
         <v>30546900</v>
       </c>
       <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
         <v>92.70899963378906</v>
       </c>
-      <c r="J202" t="n">
+      <c r="K202" t="n">
         <v>94.69666646321615</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.002219806670631153</v>
       </c>
       <c r="L202" t="n">
         <v>0.01425553038374001</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>1</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B203" s="2" t="n">
         <v>44986</v>
@@ -8155,21 +8567,23 @@
         <v>26323900</v>
       </c>
       <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
         <v>92.26500015258789</v>
       </c>
-      <c r="J203" t="n">
+      <c r="K203" t="n">
         <v>94.43499994277954</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.002325571178024344</v>
       </c>
       <c r="L203" t="n">
         <v>0.01438225905967133</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>1</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B204" s="2" t="n">
         <v>44987</v>
@@ -8193,21 +8607,23 @@
         <v>23328600</v>
       </c>
       <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
         <v>91.78600006103515</v>
       </c>
-      <c r="J204" t="n">
+      <c r="K204" t="n">
         <v>94.30999980253331</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.01988725422472126</v>
       </c>
       <c r="L204" t="n">
         <v>0.01381559741608026</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>1</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B205" s="2" t="n">
         <v>44988</v>
@@ -8231,21 +8647,23 @@
         <v>30242500</v>
       </c>
       <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
         <v>91.60999984741211</v>
       </c>
-      <c r="J205" t="n">
+      <c r="K205" t="n">
         <v>94.29388851589627</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.01852452745854771</v>
       </c>
       <c r="L205" t="n">
         <v>0.01524482921480885</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>1</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B206" s="2" t="n">
         <v>44991</v>
@@ -8269,21 +8687,23 @@
         <v>28288200</v>
       </c>
       <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
         <v>91.70900039672851</v>
       </c>
-      <c r="J206" t="n">
+      <c r="K206" t="n">
         <v>94.36157869037829</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.0165922701945056</v>
       </c>
       <c r="L206" t="n">
         <v>0.01574036322525449</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>1</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B207" s="2" t="n">
         <v>44992</v>
@@ -8307,21 +8727,23 @@
         <v>24101500</v>
       </c>
       <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
         <v>91.92099990844727</v>
       </c>
-      <c r="J207" t="n">
+      <c r="K207" t="n">
         <v>94.35199966430665</v>
-      </c>
-      <c r="K207" t="n">
-        <v>-0.0147520782077577</v>
       </c>
       <c r="L207" t="n">
         <v>0.013678159586418</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>1</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B208" s="2" t="n">
         <v>44993</v>
@@ -8345,21 +8767,23 @@
         <v>25395200</v>
       </c>
       <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
         <v>92.20599975585938</v>
       </c>
-      <c r="J208" t="n">
+      <c r="K208" t="n">
         <v>93.68249969482422</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.005097200448835437</v>
       </c>
       <c r="L208" t="n">
         <v>0.0135785532227853</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>1</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B209" s="2" t="n">
         <v>44994</v>
@@ -8383,21 +8807,23 @@
         <v>24438900</v>
       </c>
       <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
         <v>92.3650001525879</v>
       </c>
-      <c r="J209" t="n">
+      <c r="K209" t="n">
         <v>93.31549987792968</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-0.02102480540610907</v>
       </c>
       <c r="L209" t="n">
         <v>0.01528738651352595</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>1</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B210" s="2" t="n">
         <v>44995</v>
@@ -8421,21 +8847,23 @@
         <v>32850100</v>
       </c>
       <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
         <v>92.53100051879883</v>
       </c>
-      <c r="J210" t="n">
+      <c r="K210" t="n">
         <v>93.09300003051757</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-0.01780705224117762</v>
       </c>
       <c r="L210" t="n">
         <v>0.01512775758743728</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>1</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B211" s="2" t="n">
         <v>44998</v>
@@ -8459,21 +8887,23 @@
         <v>31508600</v>
       </c>
       <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
         <v>92.68700103759765</v>
       </c>
-      <c r="J211" t="n">
+      <c r="K211" t="n">
         <v>92.93300018310546</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.007142088898162147</v>
       </c>
       <c r="L211" t="n">
         <v>0.0150735496361537</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>1</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B212" s="2" t="n">
         <v>44999</v>
@@ -8497,21 +8927,23 @@
         <v>32303900</v>
       </c>
       <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
         <v>93.08200073242188</v>
       </c>
-      <c r="J212" t="n">
+      <c r="K212" t="n">
         <v>92.89550018310547</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.02825655939790539</v>
       </c>
       <c r="L212" t="n">
         <v>0.01724278515133028</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>1</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B213" s="2" t="n">
         <v>45000</v>
@@ -8535,21 +8967,23 @@
         <v>38367300</v>
       </c>
       <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
         <v>93.68600082397461</v>
       </c>
-      <c r="J213" t="n">
+      <c r="K213" t="n">
         <v>92.97550048828126</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.02440321540326584</v>
       </c>
       <c r="L213" t="n">
         <v>0.01832375320335642</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>1</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B214" s="2" t="n">
         <v>45001</v>
@@ -8573,21 +9007,23 @@
         <v>54499500</v>
       </c>
       <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
         <v>94.56200103759765</v>
       </c>
-      <c r="J214" t="n">
+      <c r="K214" t="n">
         <v>93.1740005493164</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.04681508545000646</v>
       </c>
       <c r="L214" t="n">
         <v>0.02208144414719782</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>1</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B215" s="2" t="n">
         <v>45002</v>
@@ -8611,21 +9047,23 @@
         <v>76140300</v>
       </c>
       <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
         <v>95.40600128173828</v>
       </c>
-      <c r="J215" t="n">
+      <c r="K215" t="n">
         <v>93.5080005645752</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.01375283856580056</v>
       </c>
       <c r="L215" t="n">
         <v>0.02191145381836765</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>1</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B216" s="2" t="n">
         <v>45005</v>
@@ -8649,21 +9087,23 @@
         <v>26033900</v>
       </c>
       <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
         <v>96.04100112915039</v>
       </c>
-      <c r="J216" t="n">
+      <c r="K216" t="n">
         <v>93.87500076293945</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-0.005172738473869343</v>
       </c>
       <c r="L216" t="n">
         <v>0.02213650012744955</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>1</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B217" s="2" t="n">
         <v>45006</v>
@@ -8687,21 +9127,23 @@
         <v>33122800</v>
       </c>
       <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
         <v>97.20800094604492</v>
       </c>
-      <c r="J217" t="n">
+      <c r="K217" t="n">
         <v>94.56450042724609</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.03835961955271672</v>
       </c>
       <c r="L217" t="n">
         <v>0.02278731004731384</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>1</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B218" s="2" t="n">
         <v>45007</v>
@@ -8725,21 +9167,23 @@
         <v>32336900</v>
       </c>
       <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
         <v>98.16500091552734</v>
       </c>
-      <c r="J218" t="n">
+      <c r="K218" t="n">
         <v>95.18550033569336</v>
-      </c>
-      <c r="K218" t="n">
-        <v>-0.01530607684467145</v>
       </c>
       <c r="L218" t="n">
         <v>0.0243332671276483</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>1</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B219" s="2" t="n">
         <v>45008</v>
@@ -8763,21 +9207,23 @@
         <v>31385800</v>
       </c>
       <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
         <v>99.52500076293946</v>
       </c>
-      <c r="J219" t="n">
+      <c r="K219" t="n">
         <v>95.94500045776367</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.01957398667850052</v>
       </c>
       <c r="L219" t="n">
         <v>0.02185301204144841</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>1</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B220" s="2" t="n">
         <v>45009</v>
@@ -8801,21 +9247,23 @@
         <v>25245000</v>
       </c>
       <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
         <v>101.0300003051758</v>
       </c>
-      <c r="J220" t="n">
+      <c r="K220" t="n">
         <v>96.7805004119873</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-0.001882218836964711</v>
       </c>
       <c r="L220" t="n">
         <v>0.0197572143437186</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>1</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B221" s="2" t="n">
         <v>45012</v>
@@ -8839,21 +9287,23 @@
         <v>25393400</v>
       </c>
       <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
         <v>102.1699996948242</v>
       </c>
-      <c r="J221" t="n">
+      <c r="K221" t="n">
         <v>97.42850036621094</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-0.02828587657040649</v>
       </c>
       <c r="L221" t="n">
         <v>0.02413305497299653</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>1</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B222" s="2" t="n">
         <v>45013</v>
@@ -8877,21 +9327,23 @@
         <v>24913500</v>
       </c>
       <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
         <v>102.8809997558594</v>
       </c>
-      <c r="J222" t="n">
+      <c r="K222" t="n">
         <v>97.98150024414062</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-0.01649521626735617</v>
       </c>
       <c r="L222" t="n">
         <v>0.02493028630440471</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>1</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B223" s="2" t="n">
         <v>45014</v>
@@ -8915,21 +9367,23 @@
         <v>26148300</v>
       </c>
       <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
         <v>103.4159996032715</v>
       </c>
-      <c r="J223" t="n">
+      <c r="K223" t="n">
         <v>98.55100021362304</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.005327554383145916</v>
       </c>
       <c r="L223" t="n">
         <v>0.02421935592461264</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>1</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B224" s="2" t="n">
         <v>45015</v>
@@ -8953,21 +9407,23 @@
         <v>25009800</v>
       </c>
       <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
         <v>103.4409996032715</v>
       </c>
-      <c r="J224" t="n">
+      <c r="K224" t="n">
         <v>99.00150032043457</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-0.00569187264346982</v>
       </c>
       <c r="L224" t="n">
         <v>0.01954917980126643</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>1</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B225" s="2" t="n">
         <v>45016</v>
@@ -8991,21 +9447,23 @@
         <v>28086500</v>
       </c>
       <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
         <v>103.5949996948242</v>
       </c>
-      <c r="J225" t="n">
+      <c r="K225" t="n">
         <v>99.50050048828125</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.02645085188756346</v>
       </c>
       <c r="L225" t="n">
         <v>0.02087875417439033</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>1</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B226" s="2" t="n">
         <v>45019</v>
@@ -9029,21 +9487,23 @@
         <v>20719900</v>
       </c>
       <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
         <v>103.8930000305176</v>
       </c>
-      <c r="J226" t="n">
+      <c r="K226" t="n">
         <v>99.96700057983398</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.008750035212590213</v>
       </c>
       <c r="L226" t="n">
         <v>0.02083460039448759</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>1</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B227" s="2" t="n">
         <v>45020</v>
@@ -9067,21 +9527,23 @@
         <v>20377200</v>
       </c>
       <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
         <v>103.8210006713867</v>
       </c>
-      <c r="J227" t="n">
+      <c r="K227" t="n">
         <v>100.5145008087158</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.0020017069597007</v>
       </c>
       <c r="L227" t="n">
         <v>0.01676985477026244</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>1</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B228" s="2" t="n">
         <v>45021</v>
@@ -9105,21 +9567,23 @@
         <v>21864200</v>
       </c>
       <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
         <v>103.8940002441406</v>
       </c>
-      <c r="J228" t="n">
+      <c r="K228" t="n">
         <v>101.029500579834</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-0.001617254508161303</v>
       </c>
       <c r="L228" t="n">
         <v>0.01597173719567978</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>1</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B229" s="2" t="n">
         <v>45022</v>
@@ -9143,21 +9607,23 @@
         <v>34684200</v>
       </c>
       <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
         <v>104.1580001831055</v>
       </c>
-      <c r="J229" t="n">
+      <c r="K229" t="n">
         <v>101.8415004730225</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.03763701469743452</v>
       </c>
       <c r="L229" t="n">
         <v>0.01905333890993076</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>1</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B230" s="2" t="n">
         <v>45026</v>
@@ -9181,21 +9647,23 @@
         <v>19741500</v>
       </c>
       <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
         <v>104.2470001220703</v>
       </c>
-      <c r="J230" t="n">
+      <c r="K230" t="n">
         <v>102.638500213623</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-0.01790637787248617</v>
       </c>
       <c r="L230" t="n">
         <v>0.02011808321909167</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>1</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B231" s="2" t="n">
         <v>45027</v>
@@ -9219,21 +9687,23 @@
         <v>18721300</v>
       </c>
       <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
         <v>104.5530006408691</v>
       </c>
-      <c r="J231" t="n">
+      <c r="K231" t="n">
         <v>103.3615001678467</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-0.00776058181714423</v>
       </c>
       <c r="L231" t="n">
         <v>0.01769774538677563</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>1</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B232" s="2" t="n">
         <v>45028</v>
@@ -9257,21 +9727,23 @@
         <v>22761600</v>
       </c>
       <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
         <v>104.9390007019043</v>
       </c>
-      <c r="J232" t="n">
+      <c r="K232" t="n">
         <v>103.9100002288818</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-0.008480979104647735</v>
       </c>
       <c r="L232" t="n">
         <v>0.01687569913834418</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>1</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B233" s="2" t="n">
         <v>45029</v>
@@ -9295,21 +9767,23 @@
         <v>21650700</v>
       </c>
       <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
         <v>105.568000793457</v>
       </c>
-      <c r="J233" t="n">
+      <c r="K233" t="n">
         <v>104.4920001983643</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.02822658416885404</v>
       </c>
       <c r="L233" t="n">
         <v>0.01856441913554446</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>1</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B234" s="2" t="n">
         <v>45030</v>
@@ -9333,21 +9807,23 @@
         <v>20745400</v>
       </c>
       <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
         <v>106.3820007324219</v>
       </c>
-      <c r="J234" t="n">
+      <c r="K234" t="n">
         <v>104.9115001678467</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.0117385767114131</v>
       </c>
       <c r="L234" t="n">
         <v>0.01814135447468315</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>1</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B235" s="2" t="n">
         <v>45033</v>
@@ -9371,21 +9847,23 @@
         <v>29043400</v>
       </c>
       <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
         <v>106.6240005493164</v>
       </c>
-      <c r="J235" t="n">
+      <c r="K235" t="n">
         <v>105.1095001220703</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-0.02777271095335287</v>
       </c>
       <c r="L235" t="n">
         <v>0.01999109968031514</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>1</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B236" s="2" t="n">
         <v>45034</v>
@@ -9409,21 +9887,23 @@
         <v>17641400</v>
       </c>
       <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
         <v>106.6450004577637</v>
       </c>
-      <c r="J236" t="n">
+      <c r="K236" t="n">
         <v>105.2690002441406</v>
-      </c>
-      <c r="K236" t="n">
-        <v>-0.01221570611474254</v>
       </c>
       <c r="L236" t="n">
         <v>0.02035670228290479</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>1</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B237" s="2" t="n">
         <v>45035</v>
@@ -9447,21 +9927,23 @@
         <v>16732000</v>
       </c>
       <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
         <v>106.6349998474121</v>
       </c>
-      <c r="J237" t="n">
+      <c r="K237" t="n">
         <v>105.2280002593994</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-0.0009513517970193286</v>
       </c>
       <c r="L237" t="n">
         <v>0.02035206282307119</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>1</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B238" s="2" t="n">
         <v>45036</v>
@@ -9485,21 +9967,23 @@
         <v>22515300</v>
       </c>
       <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
         <v>106.7300003051758</v>
       </c>
-      <c r="J238" t="n">
+      <c r="K238" t="n">
         <v>105.3120002746582</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.008379403075048586</v>
       </c>
       <c r="L238" t="n">
         <v>0.02050384758149455</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>1</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B239" s="2" t="n">
         <v>45037</v>
@@ -9523,21 +10007,23 @@
         <v>22369800</v>
       </c>
       <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
         <v>106.4310005187988</v>
       </c>
-      <c r="J239" t="n">
+      <c r="K239" t="n">
         <v>105.2945003509521</v>
-      </c>
-      <c r="K239" t="n">
-        <v>9.444887711373973e-05</v>
       </c>
       <c r="L239" t="n">
         <v>0.01601383528558925</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>1</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B240" s="2" t="n">
         <v>45040</v>
@@ -9561,21 +10047,23 @@
         <v>21410900</v>
       </c>
       <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
         <v>106.4140007019043</v>
       </c>
-      <c r="J240" t="n">
+      <c r="K240" t="n">
         <v>105.3305004119873</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.008214475376311814</v>
       </c>
       <c r="L240" t="n">
         <v>0.0153688463895365</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>1</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B241" s="2" t="n">
         <v>45041</v>
@@ -9599,21 +10087,23 @@
         <v>31408100</v>
       </c>
       <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
         <v>106.2630004882812</v>
       </c>
-      <c r="J241" t="n">
+      <c r="K241" t="n">
         <v>105.4080005645752</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-0.02032214079183947</v>
       </c>
       <c r="L241" t="n">
         <v>0.01653773580941854</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>1</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B242" s="2" t="n">
         <v>45042</v>
@@ -9637,21 +10127,23 @@
         <v>37068200</v>
       </c>
       <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
         <v>106.1860000610352</v>
       </c>
-      <c r="J242" t="n">
+      <c r="K242" t="n">
         <v>105.5625003814697</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-0.001529525486815952</v>
       </c>
       <c r="L242" t="n">
         <v>0.01634777794749715</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>1</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B243" s="2" t="n">
         <v>45043</v>
@@ -9675,21 +10167,23 @@
         <v>38235200</v>
       </c>
       <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
         <v>106.2040000915527</v>
       </c>
-      <c r="J243" t="n">
+      <c r="K243" t="n">
         <v>105.8860004425049</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.03752997523094526</v>
       </c>
       <c r="L243" t="n">
         <v>0.01831748714263564</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>1</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B244" s="2" t="n">
         <v>45044</v>
@@ -9713,21 +10207,23 @@
         <v>23957900</v>
       </c>
       <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
         <v>106.0800003051758</v>
       </c>
-      <c r="J244" t="n">
+      <c r="K244" t="n">
         <v>106.2310005187988</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-0.001384160949314484</v>
       </c>
       <c r="L244" t="n">
         <v>0.0178729527794563</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>1</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B245" s="2" t="n">
         <v>45047</v>
@@ -9751,21 +10247,23 @@
         <v>20926300</v>
       </c>
       <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
         <v>106.2090003967285</v>
       </c>
-      <c r="J245" t="n">
+      <c r="K245" t="n">
         <v>106.4165004730225</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-0.004712642122322364</v>
       </c>
       <c r="L245" t="n">
         <v>0.01534280138474974</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>1</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B246" s="2" t="n">
         <v>45048</v>
@@ -9789,21 +10287,23 @@
         <v>20343100</v>
       </c>
       <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
         <v>106.2950004577637</v>
       </c>
-      <c r="J246" t="n">
+      <c r="K246" t="n">
         <v>106.4700004577637</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-0.01606160748532082</v>
       </c>
       <c r="L246" t="n">
         <v>0.01576199736594792</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>1</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B247" s="2" t="n">
         <v>45049</v>
@@ -9827,21 +10327,23 @@
         <v>17116300</v>
       </c>
       <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
         <v>106.4050010681152</v>
       </c>
-      <c r="J247" t="n">
+      <c r="K247" t="n">
         <v>106.5200004577637</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.001320998162049003</v>
       </c>
       <c r="L247" t="n">
         <v>0.01574830391477272</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>1</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B248" s="2" t="n">
         <v>45050</v>
@@ -9865,21 +10367,23 @@
         <v>19780600</v>
       </c>
       <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
         <v>106.3360008239746</v>
       </c>
-      <c r="J248" t="n">
+      <c r="K248" t="n">
         <v>106.5330005645752</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-0.008575232176374015</v>
       </c>
       <c r="L248" t="n">
         <v>0.01579645068504474</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>1</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
       </c>
       <c r="B249" s="2" t="n">
         <v>45051</v>
@@ -9903,13 +10407,13 @@
         <v>20705300</v>
       </c>
       <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
         <v>106.3665000915527</v>
       </c>
-      <c r="J249" t="n">
+      <c r="K249" t="n">
         <v>106.3987503051758</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.00955229790099188</v>
       </c>
       <c r="L249" t="n">
         <v>0.01611867659409801</v>
